--- a/solutions/2-raw-data/national-health-survey-2022-table-1.xlsx
+++ b/solutions/2-raw-data/national-health-survey-2022-table-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\National Health Survey (NHS)\NHS 2022 (IHMHS)\06 Dissemination\02 S&amp;T\01. SM BL Table 1\National release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z3509778_ad_unsw_edu_au/Documents/Data Vis Workshop/Materials/solutions/2-raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBEBEB1-F766-4AC0-8D0E-E4225062CD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34560" yWindow="-120" windowWidth="24660" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -1314,24 +1314,37 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="8"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1341,23 +1354,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1365,8 +1365,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1385,12 +1391,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1975,55 +1975,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" style="2" customWidth="1"/>
     <col min="2" max="2" width="76" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="8.88671875" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2" hidden="1"/>
+    <col min="3" max="8" width="8.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="0.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:2" ht="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="69"/>
+      <c r="B1" s="64"/>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="70"/>
-    </row>
-    <row r="3" spans="1:2" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="68" t="s">
+      <c r="B2" s="65"/>
+    </row>
+    <row r="3" spans="1:2" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="68"/>
+      <c r="B3" s="63"/>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="B4" s="71"/>
+      <c r="B4" s="66"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="71"/>
-    </row>
-    <row r="6" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="68"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="66"/>
+    </row>
+    <row r="6" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="63"/>
+    </row>
+    <row r="7" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -2063,57 +2063,51 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="64" t="s">
+    <row r="12" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="64"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65" t="s">
+      <c r="B12" s="68"/>
+    </row>
+    <row r="13" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="65"/>
+      <c r="B13" s="69"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="66"/>
+      <c r="B14" s="70"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="63"/>
+      <c r="B15" s="67"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="71"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="63"/>
+      <c r="B17" s="67"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="63"/>
+      <c r="B18" s="67"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
@@ -2121,6 +2115,12 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" xr:uid="{D853CCD8-0DB5-475E-88CC-6E192D608812}"/>
@@ -2156,49 +2156,49 @@
       <selection pane="bottomRight" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="9.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="71.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="9.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2" hidden="1"/>
+    <col min="10" max="16384" width="8.85546875" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="0.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:8" ht="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-    </row>
-    <row r="3" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="68" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+    </row>
+    <row r="3" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="78" t="s">
@@ -2212,7 +2212,7 @@
       <c r="G4" s="78"/>
       <c r="H4" s="78"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="18">
         <v>2001</v>
       </c>
@@ -2235,39 +2235,39 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="79" t="s">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="79" t="s">
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
@@ -2451,17 +2451,17 @@
         <v>25428.9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
@@ -2801,7 +2801,7 @@
         <v>25428.9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="43" t="s">
         <v>19</v>
       </c>
@@ -2827,29 +2827,29 @@
         <v>25428.9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
@@ -3033,7 +3033,7 @@
         <v>3107.3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="45" t="s">
         <v>52</v>
       </c>
@@ -3059,53 +3059,53 @@
         <v>20726.3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="46" t="s">
@@ -3241,13 +3241,13 @@
       <c r="A50" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="74"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="74"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="46" t="s">
@@ -3357,13 +3357,13 @@
       <c r="A55" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
@@ -3655,13 +3655,13 @@
       <c r="A67" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="B67" s="74"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="74"/>
-      <c r="H67" s="74"/>
+      <c r="B67" s="77"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="77"/>
     </row>
     <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
@@ -3771,13 +3771,13 @@
       <c r="A72" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B72" s="74"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="74"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74"/>
-      <c r="G72" s="74"/>
-      <c r="H72" s="74"/>
+      <c r="B72" s="77"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="77"/>
+      <c r="H72" s="77"/>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
@@ -3913,13 +3913,13 @@
       <c r="A78" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="B78" s="81"/>
-      <c r="C78" s="81"/>
-      <c r="D78" s="81"/>
-      <c r="E78" s="81"/>
-      <c r="F78" s="81"/>
-      <c r="G78" s="81"/>
-      <c r="H78" s="81"/>
+      <c r="B78" s="76"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="76"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="76"/>
+      <c r="H78" s="76"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
@@ -3977,13 +3977,13 @@
       <c r="A81" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B81" s="81"/>
-      <c r="C81" s="81"/>
-      <c r="D81" s="81"/>
-      <c r="E81" s="81"/>
-      <c r="F81" s="81"/>
-      <c r="G81" s="81"/>
-      <c r="H81" s="81"/>
+      <c r="B81" s="76"/>
+      <c r="C81" s="76"/>
+      <c r="D81" s="76"/>
+      <c r="E81" s="76"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="76"/>
+      <c r="H81" s="76"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
@@ -4041,13 +4041,13 @@
       <c r="A84" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B84" s="74"/>
-      <c r="C84" s="74"/>
-      <c r="D84" s="74"/>
-      <c r="E84" s="74"/>
-      <c r="F84" s="74"/>
-      <c r="G84" s="74"/>
-      <c r="H84" s="74"/>
+      <c r="B84" s="77"/>
+      <c r="C84" s="77"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="77"/>
+      <c r="F84" s="77"/>
+      <c r="G84" s="77"/>
+      <c r="H84" s="77"/>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
@@ -4105,13 +4105,13 @@
       <c r="A87" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B87" s="74"/>
-      <c r="C87" s="74"/>
-      <c r="D87" s="74"/>
-      <c r="E87" s="74"/>
-      <c r="F87" s="74"/>
-      <c r="G87" s="74"/>
-      <c r="H87" s="74"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="77"/>
+      <c r="H87" s="77"/>
     </row>
     <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
@@ -4195,13 +4195,13 @@
       <c r="A91" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="B91" s="74"/>
-      <c r="C91" s="74"/>
-      <c r="D91" s="74"/>
-      <c r="E91" s="74"/>
-      <c r="F91" s="74"/>
-      <c r="G91" s="74"/>
-      <c r="H91" s="74"/>
+      <c r="B91" s="77"/>
+      <c r="C91" s="77"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="77"/>
+      <c r="G91" s="77"/>
+      <c r="H91" s="77"/>
     </row>
     <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
@@ -4307,7 +4307,7 @@
         <v>19806.8</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>59</v>
       </c>
@@ -4334,16 +4334,16 @@
       </c>
     </row>
     <row r="97" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="76" t="s">
+      <c r="A97" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="B97" s="76"/>
-      <c r="C97" s="76"/>
-      <c r="D97" s="76"/>
-      <c r="E97" s="76"/>
-      <c r="F97" s="76"/>
-      <c r="G97" s="76"/>
-      <c r="H97" s="76"/>
+      <c r="B97" s="81"/>
+      <c r="C97" s="81"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="81"/>
+      <c r="F97" s="81"/>
+      <c r="G97" s="81"/>
+      <c r="H97" s="81"/>
     </row>
     <row r="98" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="72" t="s">
@@ -4417,7 +4417,7 @@
       <c r="G103" s="72"/>
       <c r="H103" s="72"/>
     </row>
-    <row r="104" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="72" t="s">
         <v>207</v>
       </c>
@@ -4441,7 +4441,7 @@
       <c r="G105" s="72"/>
       <c r="H105" s="72"/>
     </row>
-    <row r="106" spans="1:16" s="13" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" s="13" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="72" t="s">
         <v>208</v>
       </c>
@@ -4453,7 +4453,7 @@
       <c r="G106" s="72"/>
       <c r="H106" s="72"/>
     </row>
-    <row r="107" spans="1:16" s="13" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" s="13" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="72" t="s">
         <v>209</v>
       </c>
@@ -4477,7 +4477,7 @@
       <c r="G108" s="73"/>
       <c r="H108" s="73"/>
     </row>
-    <row r="109" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="72" t="s">
         <v>210</v>
       </c>
@@ -4489,7 +4489,7 @@
       <c r="G109" s="72"/>
       <c r="H109" s="72"/>
     </row>
-    <row r="110" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="73" t="s">
         <v>92</v>
       </c>
@@ -4501,17 +4501,17 @@
       <c r="G110" s="73"/>
       <c r="H110" s="73"/>
     </row>
-    <row r="111" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="75" t="s">
+    <row r="111" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="B111" s="75"/>
-      <c r="C111" s="75"/>
-      <c r="D111" s="75"/>
-      <c r="E111" s="75"/>
-      <c r="F111" s="75"/>
-      <c r="G111" s="75"/>
-      <c r="H111" s="75"/>
+      <c r="B111" s="80"/>
+      <c r="C111" s="80"/>
+      <c r="D111" s="80"/>
+      <c r="E111" s="80"/>
+      <c r="F111" s="80"/>
+      <c r="G111" s="80"/>
+      <c r="H111" s="80"/>
       <c r="I111" s="23"/>
       <c r="J111" s="23"/>
       <c r="K111" s="23"/>
@@ -4521,7 +4521,7 @@
       <c r="O111" s="23"/>
       <c r="P111" s="23"/>
     </row>
-    <row r="112" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="72" t="s">
         <v>211</v>
       </c>
@@ -4581,7 +4581,7 @@
       <c r="G116" s="73"/>
       <c r="H116" s="73"/>
     </row>
-    <row r="117" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="72" t="s">
         <v>99</v>
       </c>
@@ -4593,7 +4593,7 @@
       <c r="G117" s="72"/>
       <c r="H117" s="72"/>
     </row>
-    <row r="118" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="73" t="s">
         <v>100</v>
       </c>
@@ -4605,7 +4605,7 @@
       <c r="G118" s="73"/>
       <c r="H118" s="73"/>
     </row>
-    <row r="119" spans="1:8" s="14" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="73" t="s">
         <v>212</v>
       </c>
@@ -4617,7 +4617,7 @@
       <c r="G119" s="73"/>
       <c r="H119" s="73"/>
     </row>
-    <row r="120" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="73" t="s">
         <v>213</v>
       </c>
@@ -4665,7 +4665,7 @@
       <c r="G123" s="73"/>
       <c r="H123" s="73"/>
     </row>
-    <row r="124" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="73" t="s">
         <v>159</v>
       </c>
@@ -4701,7 +4701,7 @@
       <c r="G126" s="73"/>
       <c r="H126" s="73"/>
     </row>
-    <row r="127" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="73" t="s">
         <v>148</v>
       </c>
@@ -4713,7 +4713,7 @@
       <c r="G127" s="73"/>
       <c r="H127" s="73"/>
     </row>
-    <row r="128" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="73" t="s">
         <v>160</v>
       </c>
@@ -4761,7 +4761,7 @@
       <c r="G131" s="73"/>
       <c r="H131" s="73"/>
     </row>
-    <row r="132" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="73" t="s">
         <v>143</v>
       </c>
@@ -4773,7 +4773,7 @@
       <c r="G132" s="73"/>
       <c r="H132" s="73"/>
     </row>
-    <row r="133" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="73" t="s">
         <v>142</v>
       </c>
@@ -4798,16 +4798,16 @@
       <c r="H134" s="72"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="63" t="s">
+      <c r="A135" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B135" s="63"/>
-      <c r="C135" s="63"/>
-      <c r="D135" s="63"/>
-      <c r="E135" s="63"/>
-      <c r="F135" s="63"/>
-      <c r="G135" s="63"/>
-      <c r="H135" s="63"/>
+      <c r="B135" s="67"/>
+      <c r="C135" s="67"/>
+      <c r="D135" s="67"/>
+      <c r="E135" s="67"/>
+      <c r="F135" s="67"/>
+      <c r="G135" s="67"/>
+      <c r="H135" s="67"/>
     </row>
     <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
@@ -4885,11 +4885,47 @@
     <sortCondition ref="A101:A128"/>
   </sortState>
   <mergeCells count="62">
-    <mergeCell ref="A106:H106"/>
-    <mergeCell ref="A114:H114"/>
-    <mergeCell ref="A123:H123"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A112:H112"/>
+    <mergeCell ref="A99:H99"/>
+    <mergeCell ref="A127:H127"/>
+    <mergeCell ref="A101:H101"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="A103:H103"/>
+    <mergeCell ref="A104:H104"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A105:H105"/>
+    <mergeCell ref="A107:H107"/>
+    <mergeCell ref="A108:H108"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A110:H110"/>
+    <mergeCell ref="A111:H111"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A98:H98"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="A135:H135"/>
+    <mergeCell ref="A132:H132"/>
+    <mergeCell ref="A113:H113"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A124:H124"/>
+    <mergeCell ref="A126:H126"/>
+    <mergeCell ref="A115:H115"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A117:H117"/>
+    <mergeCell ref="A118:H118"/>
+    <mergeCell ref="A119:H119"/>
+    <mergeCell ref="A125:H125"/>
+    <mergeCell ref="A134:H134"/>
+    <mergeCell ref="A129:H129"/>
+    <mergeCell ref="A130:H130"/>
     <mergeCell ref="A102:H102"/>
     <mergeCell ref="A131:H131"/>
     <mergeCell ref="A122:H122"/>
@@ -4906,47 +4942,11 @@
     <mergeCell ref="B67:H67"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B8:H8"/>
-    <mergeCell ref="A135:H135"/>
-    <mergeCell ref="A132:H132"/>
-    <mergeCell ref="A113:H113"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A124:H124"/>
-    <mergeCell ref="A126:H126"/>
-    <mergeCell ref="A115:H115"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A117:H117"/>
-    <mergeCell ref="A118:H118"/>
-    <mergeCell ref="A119:H119"/>
-    <mergeCell ref="A125:H125"/>
-    <mergeCell ref="A134:H134"/>
-    <mergeCell ref="A129:H129"/>
-    <mergeCell ref="A130:H130"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="A99:H99"/>
-    <mergeCell ref="A127:H127"/>
-    <mergeCell ref="A101:H101"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="A103:H103"/>
-    <mergeCell ref="A104:H104"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A105:H105"/>
-    <mergeCell ref="A107:H107"/>
-    <mergeCell ref="A108:H108"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A110:H110"/>
-    <mergeCell ref="A111:H111"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A98:H98"/>
-    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="A106:H106"/>
+    <mergeCell ref="A114:H114"/>
+    <mergeCell ref="A123:H123"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A112:H112"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A135" r:id="rId1" location="copyright-and-creative-commons" xr:uid="{C0E0FF31-7FD8-4137-B9CB-FE0910FC3031}"/>
@@ -4974,49 +4974,49 @@
       <selection pane="bottomRight" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="9.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="71.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="9.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2" hidden="1"/>
+    <col min="10" max="16384" width="8.85546875" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="0.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:8" ht="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-    </row>
-    <row r="3" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="68" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+    </row>
+    <row r="3" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="78" t="s">
@@ -5030,7 +5030,7 @@
       <c r="G4" s="78"/>
       <c r="H4" s="78"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="18">
         <v>2001</v>
       </c>
@@ -5053,39 +5053,39 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="79" t="s">
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
@@ -5269,17 +5269,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="43" t="s">
         <v>19</v>
       </c>
@@ -5645,29 +5645,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
@@ -5851,7 +5851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="45" t="s">
         <v>52</v>
       </c>
@@ -5877,53 +5877,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="46" t="s">
@@ -6059,13 +6059,13 @@
       <c r="A50" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="74"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="74"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="46" t="s">
@@ -6175,13 +6175,13 @@
       <c r="A55" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
@@ -6473,13 +6473,13 @@
       <c r="A67" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="B67" s="74"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="74"/>
-      <c r="H67" s="74"/>
+      <c r="B67" s="77"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="77"/>
     </row>
     <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
@@ -6589,13 +6589,13 @@
       <c r="A72" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B72" s="74"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="74"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74"/>
-      <c r="G72" s="74"/>
-      <c r="H72" s="74"/>
+      <c r="B72" s="77"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="77"/>
+      <c r="H72" s="77"/>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
@@ -6739,7 +6739,7 @@
       <c r="G78" s="84"/>
       <c r="H78" s="84"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
         <v>147</v>
       </c>
@@ -6803,7 +6803,7 @@
       <c r="G81" s="84"/>
       <c r="H81" s="84"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
         <v>145</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="22" t="s">
         <v>144</v>
       </c>
@@ -6859,13 +6859,13 @@
       <c r="A84" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B84" s="83"/>
-      <c r="C84" s="83"/>
-      <c r="D84" s="83"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="83"/>
-      <c r="H84" s="83"/>
+      <c r="B84" s="86"/>
+      <c r="C84" s="86"/>
+      <c r="D84" s="86"/>
+      <c r="E84" s="86"/>
+      <c r="F84" s="86"/>
+      <c r="G84" s="86"/>
+      <c r="H84" s="86"/>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
@@ -6919,7 +6919,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" s="77" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="31" t="s">
         <v>157</v>
       </c>
@@ -7006,13 +7006,13 @@
       <c r="A91" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="B91" s="74"/>
-      <c r="C91" s="74"/>
-      <c r="D91" s="74"/>
-      <c r="E91" s="74"/>
-      <c r="F91" s="74"/>
-      <c r="G91" s="74"/>
-      <c r="H91" s="74"/>
+      <c r="B91" s="77"/>
+      <c r="C91" s="77"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="77"/>
+      <c r="G91" s="77"/>
+      <c r="H91" s="77"/>
     </row>
     <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>59</v>
       </c>
@@ -7144,19 +7144,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="76" t="s">
+    <row r="97" spans="1:16" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="B97" s="76"/>
-      <c r="C97" s="76"/>
-      <c r="D97" s="76"/>
-      <c r="E97" s="76"/>
-      <c r="F97" s="76"/>
-      <c r="G97" s="76"/>
-      <c r="H97" s="76"/>
-    </row>
-    <row r="98" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="81"/>
+      <c r="C97" s="81"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="81"/>
+      <c r="F97" s="81"/>
+      <c r="G97" s="81"/>
+      <c r="H97" s="81"/>
+    </row>
+    <row r="98" spans="1:16" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="72" t="s">
         <v>72</v>
       </c>
@@ -7168,7 +7168,7 @@
       <c r="G98" s="72"/>
       <c r="H98" s="72"/>
     </row>
-    <row r="99" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="72" t="s">
         <v>136</v>
       </c>
@@ -7204,7 +7204,7 @@
       <c r="G101" s="72"/>
       <c r="H101" s="72"/>
     </row>
-    <row r="102" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="72" t="s">
         <v>76</v>
       </c>
@@ -7216,7 +7216,7 @@
       <c r="G102" s="72"/>
       <c r="H102" s="72"/>
     </row>
-    <row r="103" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="72" t="s">
         <v>207</v>
       </c>
@@ -7240,7 +7240,7 @@
       <c r="G104" s="72"/>
       <c r="H104" s="72"/>
     </row>
-    <row r="105" spans="1:16" s="13" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" s="13" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="72" t="s">
         <v>208</v>
       </c>
@@ -7252,7 +7252,7 @@
       <c r="G105" s="72"/>
       <c r="H105" s="72"/>
     </row>
-    <row r="106" spans="1:16" s="13" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" s="13" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="72" t="s">
         <v>209</v>
       </c>
@@ -7264,7 +7264,7 @@
       <c r="G106" s="72"/>
       <c r="H106" s="72"/>
     </row>
-    <row r="107" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="73" t="s">
         <v>88</v>
       </c>
@@ -7276,7 +7276,7 @@
       <c r="G107" s="73"/>
       <c r="H107" s="73"/>
     </row>
-    <row r="108" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="72" t="s">
         <v>210</v>
       </c>
@@ -7288,7 +7288,7 @@
       <c r="G108" s="72"/>
       <c r="H108" s="72"/>
     </row>
-    <row r="109" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="73" t="s">
         <v>92</v>
       </c>
@@ -7300,17 +7300,17 @@
       <c r="G109" s="73"/>
       <c r="H109" s="73"/>
     </row>
-    <row r="110" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="75" t="s">
+    <row r="110" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="B110" s="75"/>
-      <c r="C110" s="75"/>
-      <c r="D110" s="75"/>
-      <c r="E110" s="75"/>
-      <c r="F110" s="75"/>
-      <c r="G110" s="75"/>
-      <c r="H110" s="75"/>
+      <c r="B110" s="80"/>
+      <c r="C110" s="80"/>
+      <c r="D110" s="80"/>
+      <c r="E110" s="80"/>
+      <c r="F110" s="80"/>
+      <c r="G110" s="80"/>
+      <c r="H110" s="80"/>
       <c r="I110" s="23"/>
       <c r="J110" s="23"/>
       <c r="K110" s="23"/>
@@ -7320,7 +7320,7 @@
       <c r="O110" s="23"/>
       <c r="P110" s="23"/>
     </row>
-    <row r="111" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="72" t="s">
         <v>211</v>
       </c>
@@ -7332,7 +7332,7 @@
       <c r="G111" s="72"/>
       <c r="H111" s="72"/>
     </row>
-    <row r="112" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="72" t="s">
         <v>78</v>
       </c>
@@ -7344,7 +7344,7 @@
       <c r="G112" s="72"/>
       <c r="H112" s="72"/>
     </row>
-    <row r="113" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="72" t="s">
         <v>94</v>
       </c>
@@ -7368,7 +7368,7 @@
       <c r="G114" s="72"/>
       <c r="H114" s="72"/>
     </row>
-    <row r="115" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="73" t="s">
         <v>158</v>
       </c>
@@ -7380,7 +7380,7 @@
       <c r="G115" s="73"/>
       <c r="H115" s="73"/>
     </row>
-    <row r="116" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="72" t="s">
         <v>99</v>
       </c>
@@ -7392,7 +7392,7 @@
       <c r="G116" s="72"/>
       <c r="H116" s="72"/>
     </row>
-    <row r="117" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="73" t="s">
         <v>100</v>
       </c>
@@ -7404,7 +7404,7 @@
       <c r="G117" s="73"/>
       <c r="H117" s="73"/>
     </row>
-    <row r="118" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="73" t="s">
         <v>212</v>
       </c>
@@ -7429,112 +7429,112 @@
       <c r="H119" s="73"/>
     </row>
     <row r="120" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="82" t="s">
+      <c r="A120" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="B120" s="82"/>
-      <c r="C120" s="82"/>
-      <c r="D120" s="82"/>
-      <c r="E120" s="82"/>
-      <c r="F120" s="82"/>
-      <c r="G120" s="82"/>
-      <c r="H120" s="82"/>
-    </row>
-    <row r="121" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="82" t="s">
+      <c r="B120" s="83"/>
+      <c r="C120" s="83"/>
+      <c r="D120" s="83"/>
+      <c r="E120" s="83"/>
+      <c r="F120" s="83"/>
+      <c r="G120" s="83"/>
+      <c r="H120" s="83"/>
+    </row>
+    <row r="121" spans="1:8" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121" s="83" t="s">
         <v>232</v>
       </c>
-      <c r="B121" s="82"/>
-      <c r="C121" s="82"/>
-      <c r="D121" s="82"/>
-      <c r="E121" s="82"/>
-      <c r="F121" s="82"/>
-      <c r="G121" s="82"/>
-      <c r="H121" s="82"/>
+      <c r="B121" s="83"/>
+      <c r="C121" s="83"/>
+      <c r="D121" s="83"/>
+      <c r="E121" s="83"/>
+      <c r="F121" s="83"/>
+      <c r="G121" s="83"/>
+      <c r="H121" s="83"/>
     </row>
     <row r="122" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="82" t="s">
+      <c r="A122" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="B122" s="82"/>
-      <c r="C122" s="82"/>
-      <c r="D122" s="82"/>
-      <c r="E122" s="82"/>
-      <c r="F122" s="82"/>
-      <c r="G122" s="82"/>
-      <c r="H122" s="82"/>
+      <c r="B122" s="83"/>
+      <c r="C122" s="83"/>
+      <c r="D122" s="83"/>
+      <c r="E122" s="83"/>
+      <c r="F122" s="83"/>
+      <c r="G122" s="83"/>
+      <c r="H122" s="83"/>
     </row>
     <row r="123" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="82" t="s">
+      <c r="A123" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="B123" s="82"/>
-      <c r="C123" s="82"/>
-      <c r="D123" s="82"/>
-      <c r="E123" s="82"/>
-      <c r="F123" s="82"/>
-      <c r="G123" s="82"/>
-      <c r="H123" s="82"/>
+      <c r="B123" s="83"/>
+      <c r="C123" s="83"/>
+      <c r="D123" s="83"/>
+      <c r="E123" s="83"/>
+      <c r="F123" s="83"/>
+      <c r="G123" s="83"/>
+      <c r="H123" s="83"/>
     </row>
     <row r="124" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="82" t="s">
+      <c r="A124" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="B124" s="82"/>
-      <c r="C124" s="82"/>
-      <c r="D124" s="82"/>
-      <c r="E124" s="82"/>
-      <c r="F124" s="82"/>
-      <c r="G124" s="82"/>
-      <c r="H124" s="82"/>
+      <c r="B124" s="83"/>
+      <c r="C124" s="83"/>
+      <c r="D124" s="83"/>
+      <c r="E124" s="83"/>
+      <c r="F124" s="83"/>
+      <c r="G124" s="83"/>
+      <c r="H124" s="83"/>
     </row>
     <row r="125" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="82" t="s">
+      <c r="A125" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="B125" s="82"/>
-      <c r="C125" s="82"/>
-      <c r="D125" s="82"/>
-      <c r="E125" s="82"/>
-      <c r="F125" s="82"/>
-      <c r="G125" s="82"/>
-      <c r="H125" s="82"/>
+      <c r="B125" s="83"/>
+      <c r="C125" s="83"/>
+      <c r="D125" s="83"/>
+      <c r="E125" s="83"/>
+      <c r="F125" s="83"/>
+      <c r="G125" s="83"/>
+      <c r="H125" s="83"/>
     </row>
     <row r="126" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="82" t="s">
+      <c r="A126" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="B126" s="82"/>
-      <c r="C126" s="82"/>
-      <c r="D126" s="82"/>
-      <c r="E126" s="82"/>
-      <c r="F126" s="82"/>
-      <c r="G126" s="82"/>
-      <c r="H126" s="82"/>
+      <c r="B126" s="83"/>
+      <c r="C126" s="83"/>
+      <c r="D126" s="83"/>
+      <c r="E126" s="83"/>
+      <c r="F126" s="83"/>
+      <c r="G126" s="83"/>
+      <c r="H126" s="83"/>
     </row>
     <row r="127" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="82" t="s">
+      <c r="A127" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="B127" s="82"/>
-      <c r="C127" s="82"/>
-      <c r="D127" s="82"/>
-      <c r="E127" s="82"/>
-      <c r="F127" s="82"/>
-      <c r="G127" s="82"/>
-      <c r="H127" s="82"/>
+      <c r="B127" s="83"/>
+      <c r="C127" s="83"/>
+      <c r="D127" s="83"/>
+      <c r="E127" s="83"/>
+      <c r="F127" s="83"/>
+      <c r="G127" s="83"/>
+      <c r="H127" s="83"/>
     </row>
     <row r="128" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="82" t="s">
+      <c r="A128" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="B128" s="82"/>
-      <c r="C128" s="82"/>
-      <c r="D128" s="82"/>
-      <c r="E128" s="82"/>
-      <c r="F128" s="82"/>
-      <c r="G128" s="82"/>
-      <c r="H128" s="82"/>
+      <c r="B128" s="83"/>
+      <c r="C128" s="83"/>
+      <c r="D128" s="83"/>
+      <c r="E128" s="83"/>
+      <c r="F128" s="83"/>
+      <c r="G128" s="83"/>
+      <c r="H128" s="83"/>
     </row>
     <row r="129" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="73" t="s">
@@ -7549,64 +7549,64 @@
       <c r="H129" s="73"/>
     </row>
     <row r="130" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="82" t="s">
+      <c r="A130" s="83" t="s">
         <v>222</v>
       </c>
-      <c r="B130" s="82"/>
-      <c r="C130" s="82"/>
-      <c r="D130" s="82"/>
-      <c r="E130" s="82"/>
-      <c r="F130" s="82"/>
-      <c r="G130" s="82"/>
-      <c r="H130" s="82"/>
+      <c r="B130" s="83"/>
+      <c r="C130" s="83"/>
+      <c r="D130" s="83"/>
+      <c r="E130" s="83"/>
+      <c r="F130" s="83"/>
+      <c r="G130" s="83"/>
+      <c r="H130" s="83"/>
     </row>
     <row r="131" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="82" t="s">
+      <c r="A131" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="B131" s="82"/>
-      <c r="C131" s="82"/>
-      <c r="D131" s="82"/>
-      <c r="E131" s="82"/>
-      <c r="F131" s="82"/>
-      <c r="G131" s="82"/>
-      <c r="H131" s="82"/>
+      <c r="B131" s="83"/>
+      <c r="C131" s="83"/>
+      <c r="D131" s="83"/>
+      <c r="E131" s="83"/>
+      <c r="F131" s="83"/>
+      <c r="G131" s="83"/>
+      <c r="H131" s="83"/>
     </row>
     <row r="132" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="82" t="s">
+      <c r="A132" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="B132" s="82"/>
-      <c r="C132" s="82"/>
-      <c r="D132" s="82"/>
-      <c r="E132" s="82"/>
-      <c r="F132" s="82"/>
-      <c r="G132" s="82"/>
-      <c r="H132" s="82"/>
+      <c r="B132" s="83"/>
+      <c r="C132" s="83"/>
+      <c r="D132" s="83"/>
+      <c r="E132" s="83"/>
+      <c r="F132" s="83"/>
+      <c r="G132" s="83"/>
+      <c r="H132" s="83"/>
     </row>
     <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="86" t="s">
+      <c r="A133" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="B133" s="86"/>
-      <c r="C133" s="86"/>
-      <c r="D133" s="86"/>
-      <c r="E133" s="86"/>
-      <c r="F133" s="86"/>
-      <c r="G133" s="86"/>
-      <c r="H133" s="86"/>
+      <c r="B133" s="82"/>
+      <c r="C133" s="82"/>
+      <c r="D133" s="82"/>
+      <c r="E133" s="82"/>
+      <c r="F133" s="82"/>
+      <c r="G133" s="82"/>
+      <c r="H133" s="82"/>
     </row>
     <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="63" t="s">
+      <c r="A134" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B134" s="63"/>
-      <c r="C134" s="63"/>
-      <c r="D134" s="63"/>
-      <c r="E134" s="63"/>
-      <c r="F134" s="63"/>
-      <c r="G134" s="63"/>
-      <c r="H134" s="63"/>
+      <c r="B134" s="67"/>
+      <c r="C134" s="67"/>
+      <c r="D134" s="67"/>
+      <c r="E134" s="67"/>
+      <c r="F134" s="67"/>
+      <c r="G134" s="67"/>
+      <c r="H134" s="67"/>
     </row>
     <row r="135" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
@@ -7681,6 +7681,51 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="61">
+    <mergeCell ref="A134:H134"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="A130:H130"/>
+    <mergeCell ref="A124:H124"/>
+    <mergeCell ref="A125:H125"/>
+    <mergeCell ref="A126:H126"/>
+    <mergeCell ref="A127:H127"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A129:H129"/>
+    <mergeCell ref="A110:H110"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="A123:H123"/>
+    <mergeCell ref="A112:H112"/>
+    <mergeCell ref="A113:H113"/>
+    <mergeCell ref="A114:H114"/>
+    <mergeCell ref="A115:H115"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A117:H117"/>
+    <mergeCell ref="A119:H119"/>
+    <mergeCell ref="A120:H120"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A122:H122"/>
+    <mergeCell ref="A118:H118"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A98:H98"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="B87:XFD87"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B6:H6"/>
     <mergeCell ref="A133:H133"/>
     <mergeCell ref="A132:H132"/>
     <mergeCell ref="A131:H131"/>
@@ -7697,51 +7742,6 @@
     <mergeCell ref="A107:H107"/>
     <mergeCell ref="A108:H108"/>
     <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A98:H98"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="B87:XFD87"/>
-    <mergeCell ref="A110:H110"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="A123:H123"/>
-    <mergeCell ref="A112:H112"/>
-    <mergeCell ref="A113:H113"/>
-    <mergeCell ref="A114:H114"/>
-    <mergeCell ref="A115:H115"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A117:H117"/>
-    <mergeCell ref="A119:H119"/>
-    <mergeCell ref="A120:H120"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A122:H122"/>
-    <mergeCell ref="A118:H118"/>
-    <mergeCell ref="A134:H134"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="A130:H130"/>
-    <mergeCell ref="A124:H124"/>
-    <mergeCell ref="A125:H125"/>
-    <mergeCell ref="A126:H126"/>
-    <mergeCell ref="A127:H127"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A129:H129"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A134" r:id="rId1" location="copyright-and-creative-commons" xr:uid="{33DE827C-ADFC-436F-8FDD-D05687ADE13F}"/>
@@ -7761,118 +7761,118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E67C7FB-8D2B-46B4-9049-7B899BA2A066}">
   <dimension ref="A1:O212"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B91" sqref="B91:H91"/>
       <selection pane="topRight" activeCell="B91" sqref="B91:H91"/>
       <selection pane="bottomLeft" activeCell="B91" sqref="B91:H91"/>
-      <selection pane="bottomRight" sqref="A1:O1"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="9.77734375" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2" hidden="1"/>
+    <col min="1" max="1" width="71.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="9.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="0.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:15" ht="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-    </row>
-    <row r="3" spans="1:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="88" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+    </row>
+    <row r="3" spans="1:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="90" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="90" t="s">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="91" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+    </row>
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="28">
         <v>2001</v>
       </c>
@@ -7916,60 +7916,60 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="79" t="s">
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
@@ -8300,24 +8300,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
@@ -8930,7 +8930,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="43" t="s">
         <v>19</v>
       </c>
@@ -8977,43 +8977,43 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-    </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+    </row>
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="31" t="s">
@@ -9344,7 +9344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="45" t="s">
         <v>52</v>
       </c>
@@ -9391,81 +9391,81 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80"/>
-      <c r="O42" s="80"/>
-    </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="75"/>
+    </row>
+    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="74"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="77"/>
     </row>
     <row r="44" spans="1:15" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="74"/>
-      <c r="O44" s="74"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="77"/>
+      <c r="O44" s="77"/>
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="74"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="74"/>
-      <c r="N45" s="74"/>
-      <c r="O45" s="74"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="77"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="77"/>
     </row>
     <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="46" t="s">
@@ -9706,20 +9706,20 @@
       <c r="A51" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="74"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="74"/>
-      <c r="M51" s="74"/>
-      <c r="N51" s="74"/>
-      <c r="O51" s="74"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="77"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="77"/>
+      <c r="L51" s="77"/>
+      <c r="M51" s="77"/>
+      <c r="N51" s="77"/>
+      <c r="O51" s="77"/>
     </row>
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="46" t="s">
@@ -9913,20 +9913,20 @@
       <c r="A56" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
-      <c r="K56" s="81"/>
-      <c r="L56" s="81"/>
-      <c r="M56" s="81"/>
-      <c r="N56" s="81"/>
-      <c r="O56" s="81"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="76"/>
+      <c r="K56" s="76"/>
+      <c r="L56" s="76"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="76"/>
+      <c r="O56" s="76"/>
     </row>
     <row r="57" spans="1:15" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
@@ -10449,20 +10449,20 @@
       <c r="A68" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B68" s="74"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="74"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="74"/>
-      <c r="H68" s="74"/>
-      <c r="I68" s="74"/>
-      <c r="J68" s="74"/>
-      <c r="K68" s="74"/>
-      <c r="L68" s="74"/>
-      <c r="M68" s="74"/>
-      <c r="N68" s="74"/>
-      <c r="O68" s="74"/>
+      <c r="B68" s="77"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="77"/>
+      <c r="K68" s="77"/>
+      <c r="L68" s="77"/>
+      <c r="M68" s="77"/>
+      <c r="N68" s="77"/>
+      <c r="O68" s="77"/>
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
@@ -10656,20 +10656,20 @@
       <c r="A73" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="B73" s="74"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="74"/>
-      <c r="H73" s="74"/>
-      <c r="I73" s="74"/>
-      <c r="J73" s="74"/>
-      <c r="K73" s="74"/>
-      <c r="L73" s="74"/>
-      <c r="M73" s="74"/>
-      <c r="N73" s="74"/>
-      <c r="O73" s="74"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="77"/>
+      <c r="H73" s="77"/>
+      <c r="I73" s="77"/>
+      <c r="J73" s="77"/>
+      <c r="K73" s="77"/>
+      <c r="L73" s="77"/>
+      <c r="M73" s="77"/>
+      <c r="N73" s="77"/>
+      <c r="O73" s="77"/>
     </row>
     <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
@@ -10859,7 +10859,7 @@
         <v>95.9</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="22" t="s">
         <v>175</v>
       </c>
@@ -10910,22 +10910,22 @@
       <c r="A79" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="B79" s="74"/>
-      <c r="C79" s="74"/>
-      <c r="D79" s="74"/>
-      <c r="E79" s="74"/>
-      <c r="F79" s="74"/>
-      <c r="G79" s="74"/>
-      <c r="H79" s="74"/>
-      <c r="I79" s="74"/>
-      <c r="J79" s="74"/>
-      <c r="K79" s="74"/>
-      <c r="L79" s="74"/>
-      <c r="M79" s="74"/>
-      <c r="N79" s="74"/>
-      <c r="O79" s="74"/>
-    </row>
-    <row r="80" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B79" s="77"/>
+      <c r="C79" s="77"/>
+      <c r="D79" s="77"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="77"/>
+      <c r="H79" s="77"/>
+      <c r="I79" s="77"/>
+      <c r="J79" s="77"/>
+      <c r="K79" s="77"/>
+      <c r="L79" s="77"/>
+      <c r="M79" s="77"/>
+      <c r="N79" s="77"/>
+      <c r="O79" s="77"/>
+    </row>
+    <row r="80" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
         <v>169</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="81" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="22" t="s">
         <v>177</v>
       </c>
@@ -11023,22 +11023,22 @@
       <c r="A82" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B82" s="74"/>
-      <c r="C82" s="74"/>
-      <c r="D82" s="74"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="74"/>
-      <c r="G82" s="74"/>
-      <c r="H82" s="74"/>
-      <c r="I82" s="74"/>
-      <c r="J82" s="74"/>
-      <c r="K82" s="74"/>
-      <c r="L82" s="74"/>
-      <c r="M82" s="74"/>
-      <c r="N82" s="74"/>
-      <c r="O82" s="74"/>
-    </row>
-    <row r="83" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B82" s="77"/>
+      <c r="C82" s="77"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="77"/>
+      <c r="J82" s="77"/>
+      <c r="K82" s="77"/>
+      <c r="L82" s="77"/>
+      <c r="M82" s="77"/>
+      <c r="N82" s="77"/>
+      <c r="O82" s="77"/>
+    </row>
+    <row r="83" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
         <v>167</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="22" t="s">
         <v>165</v>
       </c>
@@ -11132,24 +11132,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:15" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" s="17" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B85" s="81"/>
-      <c r="C85" s="81"/>
-      <c r="D85" s="81"/>
-      <c r="E85" s="81"/>
-      <c r="F85" s="81"/>
-      <c r="G85" s="81"/>
-      <c r="H85" s="81"/>
-      <c r="I85" s="81"/>
-      <c r="J85" s="81"/>
-      <c r="K85" s="81"/>
-      <c r="L85" s="81"/>
-      <c r="M85" s="81"/>
-      <c r="N85" s="81"/>
-      <c r="O85" s="81"/>
+      <c r="B85" s="76"/>
+      <c r="C85" s="76"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="76"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="76"/>
+      <c r="K85" s="76"/>
+      <c r="L85" s="76"/>
+      <c r="M85" s="76"/>
+      <c r="N85" s="76"/>
+      <c r="O85" s="76"/>
     </row>
     <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
@@ -11249,20 +11249,20 @@
       <c r="A88" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="B88" s="74"/>
-      <c r="C88" s="74"/>
-      <c r="D88" s="74"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="74"/>
-      <c r="G88" s="74"/>
-      <c r="H88" s="74"/>
-      <c r="I88" s="74"/>
-      <c r="J88" s="74"/>
-      <c r="K88" s="74"/>
-      <c r="L88" s="74"/>
-      <c r="M88" s="74"/>
-      <c r="N88" s="74"/>
-      <c r="O88" s="74"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="77"/>
+      <c r="H88" s="77"/>
+      <c r="I88" s="77"/>
+      <c r="J88" s="77"/>
+      <c r="K88" s="77"/>
+      <c r="L88" s="77"/>
+      <c r="M88" s="77"/>
+      <c r="N88" s="77"/>
+      <c r="O88" s="77"/>
     </row>
     <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
@@ -11409,20 +11409,20 @@
       <c r="A92" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="B92" s="74"/>
-      <c r="C92" s="74"/>
-      <c r="D92" s="74"/>
-      <c r="E92" s="74"/>
-      <c r="F92" s="74"/>
-      <c r="G92" s="74"/>
-      <c r="H92" s="74"/>
-      <c r="I92" s="74"/>
-      <c r="J92" s="74"/>
-      <c r="K92" s="74"/>
-      <c r="L92" s="74"/>
-      <c r="M92" s="74"/>
-      <c r="N92" s="74"/>
-      <c r="O92" s="74"/>
+      <c r="B92" s="77"/>
+      <c r="C92" s="77"/>
+      <c r="D92" s="77"/>
+      <c r="E92" s="77"/>
+      <c r="F92" s="77"/>
+      <c r="G92" s="77"/>
+      <c r="H92" s="77"/>
+      <c r="I92" s="77"/>
+      <c r="J92" s="77"/>
+      <c r="K92" s="77"/>
+      <c r="L92" s="77"/>
+      <c r="M92" s="77"/>
+      <c r="N92" s="77"/>
+      <c r="O92" s="77"/>
     </row>
     <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
@@ -11612,7 +11612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:15" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="45" t="s">
         <v>59</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:15" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="72" t="s">
         <v>137</v>
       </c>
@@ -11678,7 +11678,7 @@
       <c r="N98" s="72"/>
       <c r="O98" s="72"/>
     </row>
-    <row r="99" spans="1:15" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="72" t="s">
         <v>72</v>
       </c>
@@ -11697,7 +11697,7 @@
       <c r="N99" s="72"/>
       <c r="O99" s="72"/>
     </row>
-    <row r="100" spans="1:15" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="72" t="s">
         <v>73</v>
       </c>
@@ -11716,7 +11716,7 @@
       <c r="N100" s="72"/>
       <c r="O100" s="72"/>
     </row>
-    <row r="101" spans="1:15" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="73" t="s">
         <v>128</v>
       </c>
@@ -11735,7 +11735,7 @@
       <c r="N101" s="73"/>
       <c r="O101" s="73"/>
     </row>
-    <row r="102" spans="1:15" s="13" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" s="13" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="72" t="s">
         <v>126</v>
       </c>
@@ -11926,23 +11926,23 @@
       <c r="O111" s="73"/>
     </row>
     <row r="112" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="93" t="s">
+      <c r="A112" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="B112" s="94"/>
-      <c r="C112" s="94"/>
-      <c r="D112" s="94"/>
-      <c r="E112" s="94"/>
-      <c r="F112" s="94"/>
-      <c r="G112" s="94"/>
-      <c r="H112" s="94"/>
-      <c r="I112" s="94"/>
-      <c r="J112" s="94"/>
-      <c r="K112" s="94"/>
-      <c r="L112" s="94"/>
-      <c r="M112" s="94"/>
-      <c r="N112" s="94"/>
-      <c r="O112" s="94"/>
+      <c r="B112" s="88"/>
+      <c r="C112" s="88"/>
+      <c r="D112" s="88"/>
+      <c r="E112" s="88"/>
+      <c r="F112" s="88"/>
+      <c r="G112" s="88"/>
+      <c r="H112" s="88"/>
+      <c r="I112" s="88"/>
+      <c r="J112" s="88"/>
+      <c r="K112" s="88"/>
+      <c r="L112" s="88"/>
+      <c r="M112" s="88"/>
+      <c r="N112" s="88"/>
+      <c r="O112" s="88"/>
     </row>
     <row r="113" spans="1:15" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="72" t="s">
@@ -12382,23 +12382,23 @@
       <c r="O135" s="72"/>
     </row>
     <row r="136" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="63" t="s">
+      <c r="A136" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="63"/>
-      <c r="C136" s="63"/>
-      <c r="D136" s="63"/>
-      <c r="E136" s="63"/>
-      <c r="F136" s="63"/>
-      <c r="G136" s="63"/>
-      <c r="H136" s="63"/>
-      <c r="I136" s="63"/>
-      <c r="J136" s="63"/>
-      <c r="K136" s="63"/>
-      <c r="L136" s="63"/>
-      <c r="M136" s="63"/>
-      <c r="N136" s="63"/>
-      <c r="O136" s="63"/>
+      <c r="B136" s="67"/>
+      <c r="C136" s="67"/>
+      <c r="D136" s="67"/>
+      <c r="E136" s="67"/>
+      <c r="F136" s="67"/>
+      <c r="G136" s="67"/>
+      <c r="H136" s="67"/>
+      <c r="I136" s="67"/>
+      <c r="J136" s="67"/>
+      <c r="K136" s="67"/>
+      <c r="L136" s="67"/>
+      <c r="M136" s="67"/>
+      <c r="N136" s="67"/>
+      <c r="O136" s="67"/>
     </row>
     <row r="137" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
@@ -12531,16 +12531,44 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="64">
-    <mergeCell ref="A98:O98"/>
-    <mergeCell ref="B51:O51"/>
-    <mergeCell ref="B56:O56"/>
-    <mergeCell ref="B68:O68"/>
-    <mergeCell ref="B73:O73"/>
-    <mergeCell ref="B92:O92"/>
-    <mergeCell ref="B88:O88"/>
-    <mergeCell ref="B85:O85"/>
-    <mergeCell ref="B82:O82"/>
-    <mergeCell ref="B79:O79"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A131:O131"/>
+    <mergeCell ref="A119:O119"/>
+    <mergeCell ref="A120:O120"/>
+    <mergeCell ref="A124:O124"/>
+    <mergeCell ref="A125:O125"/>
+    <mergeCell ref="A126:O126"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B42:O42"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B43:O43"/>
+    <mergeCell ref="B45:O45"/>
+    <mergeCell ref="B44:O44"/>
+    <mergeCell ref="A135:O135"/>
+    <mergeCell ref="A136:O136"/>
+    <mergeCell ref="A103:O103"/>
+    <mergeCell ref="A104:O104"/>
+    <mergeCell ref="A105:O105"/>
+    <mergeCell ref="A106:O106"/>
+    <mergeCell ref="A107:O107"/>
+    <mergeCell ref="A108:O108"/>
+    <mergeCell ref="A109:O109"/>
+    <mergeCell ref="A110:O110"/>
+    <mergeCell ref="A111:O111"/>
+    <mergeCell ref="A112:O112"/>
+    <mergeCell ref="A113:O113"/>
+    <mergeCell ref="A114:O114"/>
+    <mergeCell ref="A115:O115"/>
+    <mergeCell ref="A134:O134"/>
     <mergeCell ref="A128:O128"/>
     <mergeCell ref="A129:O129"/>
     <mergeCell ref="A130:O130"/>
@@ -12557,44 +12585,16 @@
     <mergeCell ref="A118:O118"/>
     <mergeCell ref="A122:O122"/>
     <mergeCell ref="A127:O127"/>
-    <mergeCell ref="A135:O135"/>
-    <mergeCell ref="A136:O136"/>
-    <mergeCell ref="A103:O103"/>
-    <mergeCell ref="A104:O104"/>
-    <mergeCell ref="A105:O105"/>
-    <mergeCell ref="A106:O106"/>
-    <mergeCell ref="A107:O107"/>
-    <mergeCell ref="A108:O108"/>
-    <mergeCell ref="A109:O109"/>
-    <mergeCell ref="A110:O110"/>
-    <mergeCell ref="A111:O111"/>
-    <mergeCell ref="A112:O112"/>
-    <mergeCell ref="A113:O113"/>
-    <mergeCell ref="A114:O114"/>
-    <mergeCell ref="A115:O115"/>
-    <mergeCell ref="A134:O134"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="B43:O43"/>
-    <mergeCell ref="B45:O45"/>
-    <mergeCell ref="B44:O44"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A131:O131"/>
-    <mergeCell ref="A119:O119"/>
-    <mergeCell ref="A120:O120"/>
-    <mergeCell ref="A124:O124"/>
-    <mergeCell ref="A125:O125"/>
-    <mergeCell ref="A126:O126"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B42:O42"/>
+    <mergeCell ref="A98:O98"/>
+    <mergeCell ref="B51:O51"/>
+    <mergeCell ref="B56:O56"/>
+    <mergeCell ref="B68:O68"/>
+    <mergeCell ref="B73:O73"/>
+    <mergeCell ref="B92:O92"/>
+    <mergeCell ref="B88:O88"/>
+    <mergeCell ref="B85:O85"/>
+    <mergeCell ref="B82:O82"/>
+    <mergeCell ref="B79:O79"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A136" r:id="rId1" location="copyright-and-creative-commons" xr:uid="{CC4312E2-3C16-41F5-B536-FBD12C8A89C0}"/>
@@ -12622,112 +12622,112 @@
       <selection pane="bottomRight" sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="9.77734375" style="2" customWidth="1"/>
-    <col min="16" max="16383" width="8.88671875" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="71.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="9.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16383" width="8.85546875" style="2" hidden="1" customWidth="1"/>
     <col min="16384" max="16384" width="0" style="2" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="0.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:16" ht="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
       <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-    </row>
-    <row r="3" spans="1:16" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="88" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+    </row>
+    <row r="3" spans="1:16" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-    </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="90" t="s">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="91" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-    </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="28">
         <v>2001</v>
       </c>
@@ -12771,60 +12771,60 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="79" t="s">
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
@@ -13155,24 +13155,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
@@ -13785,7 +13785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="43" t="s">
         <v>19</v>
       </c>
@@ -13832,43 +13832,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-    </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+    </row>
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="31" t="s">
@@ -14199,7 +14199,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="45" t="s">
         <v>52</v>
       </c>
@@ -14246,81 +14246,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80"/>
-      <c r="O42" s="80"/>
-    </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="75"/>
+    </row>
+    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="74"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="77"/>
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="74"/>
-      <c r="O44" s="74"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="77"/>
+      <c r="O44" s="77"/>
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="74"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="74"/>
-      <c r="N45" s="74"/>
-      <c r="O45" s="74"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="77"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="77"/>
     </row>
     <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="46" t="s">
@@ -14561,20 +14561,20 @@
       <c r="A51" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="74"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="74"/>
-      <c r="M51" s="74"/>
-      <c r="N51" s="74"/>
-      <c r="O51" s="74"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="77"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="77"/>
+      <c r="L51" s="77"/>
+      <c r="M51" s="77"/>
+      <c r="N51" s="77"/>
+      <c r="O51" s="77"/>
     </row>
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="46" t="s">
@@ -14768,20 +14768,20 @@
       <c r="A56" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
-      <c r="K56" s="81"/>
-      <c r="L56" s="81"/>
-      <c r="M56" s="81"/>
-      <c r="N56" s="81"/>
-      <c r="O56" s="81"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="76"/>
+      <c r="K56" s="76"/>
+      <c r="L56" s="76"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="76"/>
+      <c r="O56" s="76"/>
     </row>
     <row r="57" spans="1:15" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
@@ -15304,20 +15304,20 @@
       <c r="A68" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B68" s="74"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="74"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="74"/>
-      <c r="H68" s="74"/>
-      <c r="I68" s="74"/>
-      <c r="J68" s="74"/>
-      <c r="K68" s="74"/>
-      <c r="L68" s="74"/>
-      <c r="M68" s="74"/>
-      <c r="N68" s="74"/>
-      <c r="O68" s="74"/>
+      <c r="B68" s="77"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="77"/>
+      <c r="K68" s="77"/>
+      <c r="L68" s="77"/>
+      <c r="M68" s="77"/>
+      <c r="N68" s="77"/>
+      <c r="O68" s="77"/>
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
@@ -15511,20 +15511,20 @@
       <c r="A73" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="B73" s="74"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="74"/>
-      <c r="H73" s="74"/>
-      <c r="I73" s="74"/>
-      <c r="J73" s="74"/>
-      <c r="K73" s="74"/>
-      <c r="L73" s="74"/>
-      <c r="M73" s="74"/>
-      <c r="N73" s="74"/>
-      <c r="O73" s="74"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="77"/>
+      <c r="H73" s="77"/>
+      <c r="I73" s="77"/>
+      <c r="J73" s="77"/>
+      <c r="K73" s="77"/>
+      <c r="L73" s="77"/>
+      <c r="M73" s="77"/>
+      <c r="N73" s="77"/>
+      <c r="O73" s="77"/>
     </row>
     <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
@@ -15714,7 +15714,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" s="59" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="22" t="s">
         <v>175</v>
       </c>
@@ -15765,13 +15765,13 @@
       <c r="A79" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="B79" s="83"/>
-      <c r="C79" s="83"/>
-      <c r="D79" s="83"/>
-      <c r="E79" s="83"/>
-      <c r="F79" s="83"/>
-      <c r="G79" s="83"/>
-      <c r="H79" s="83"/>
+      <c r="B79" s="86"/>
+      <c r="C79" s="86"/>
+      <c r="D79" s="86"/>
+      <c r="E79" s="86"/>
+      <c r="F79" s="86"/>
+      <c r="G79" s="86"/>
+      <c r="H79" s="86"/>
       <c r="I79" s="16"/>
       <c r="J79" s="16"/>
       <c r="K79" s="16"/>
@@ -15780,7 +15780,7 @@
       <c r="N79" s="16"/>
       <c r="O79" s="16"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
         <v>169</v>
       </c>
@@ -15827,7 +15827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" s="59" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="22" t="s">
         <v>177</v>
       </c>
@@ -15878,13 +15878,13 @@
       <c r="A82" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B82" s="83"/>
-      <c r="C82" s="83"/>
-      <c r="D82" s="83"/>
-      <c r="E82" s="83"/>
-      <c r="F82" s="83"/>
-      <c r="G82" s="83"/>
-      <c r="H82" s="83"/>
+      <c r="B82" s="86"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="86"/>
+      <c r="E82" s="86"/>
+      <c r="F82" s="86"/>
+      <c r="G82" s="86"/>
+      <c r="H82" s="86"/>
       <c r="I82" s="16"/>
       <c r="J82" s="16"/>
       <c r="K82" s="16"/>
@@ -15893,7 +15893,7 @@
       <c r="N82" s="16"/>
       <c r="O82" s="16"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
         <v>167</v>
       </c>
@@ -15940,7 +15940,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" s="59" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="22" t="s">
         <v>165</v>
       </c>
@@ -15987,24 +15987,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" s="59" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" s="59" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B85" s="81"/>
-      <c r="C85" s="81"/>
-      <c r="D85" s="81"/>
-      <c r="E85" s="81"/>
-      <c r="F85" s="81"/>
-      <c r="G85" s="81"/>
-      <c r="H85" s="81"/>
-      <c r="I85" s="81"/>
-      <c r="J85" s="81"/>
-      <c r="K85" s="81"/>
-      <c r="L85" s="81"/>
-      <c r="M85" s="81"/>
-      <c r="N85" s="81"/>
-      <c r="O85" s="81"/>
+      <c r="B85" s="76"/>
+      <c r="C85" s="76"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="76"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="76"/>
+      <c r="K85" s="76"/>
+      <c r="L85" s="76"/>
+      <c r="M85" s="76"/>
+      <c r="N85" s="76"/>
+      <c r="O85" s="76"/>
     </row>
     <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
@@ -16104,20 +16104,20 @@
       <c r="A88" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="B88" s="74"/>
-      <c r="C88" s="74"/>
-      <c r="D88" s="74"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="74"/>
-      <c r="G88" s="74"/>
-      <c r="H88" s="74"/>
-      <c r="I88" s="74"/>
-      <c r="J88" s="74"/>
-      <c r="K88" s="74"/>
-      <c r="L88" s="74"/>
-      <c r="M88" s="74"/>
-      <c r="N88" s="74"/>
-      <c r="O88" s="74"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="77"/>
+      <c r="H88" s="77"/>
+      <c r="I88" s="77"/>
+      <c r="J88" s="77"/>
+      <c r="K88" s="77"/>
+      <c r="L88" s="77"/>
+      <c r="M88" s="77"/>
+      <c r="N88" s="77"/>
+      <c r="O88" s="77"/>
     </row>
     <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
@@ -16260,7 +16260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" s="77" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="31" t="s">
         <v>225</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="45" t="s">
         <v>59</v>
       </c>
@@ -16500,7 +16500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="95" t="s">
         <v>139</v>
       </c>
@@ -16519,7 +16519,7 @@
       <c r="N98" s="95"/>
       <c r="O98" s="95"/>
     </row>
-    <row r="99" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="72" t="s">
         <v>72</v>
       </c>
@@ -16538,7 +16538,7 @@
       <c r="N99" s="72"/>
       <c r="O99" s="72"/>
     </row>
-    <row r="100" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="72" t="s">
         <v>138</v>
       </c>
@@ -16576,7 +16576,7 @@
       <c r="N101" s="73"/>
       <c r="O101" s="73"/>
     </row>
-    <row r="102" spans="1:16" s="13" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" s="13" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="72" t="s">
         <v>126</v>
       </c>
@@ -16614,7 +16614,7 @@
       <c r="N103" s="72"/>
       <c r="O103" s="72"/>
     </row>
-    <row r="104" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="72" t="s">
         <v>122</v>
       </c>
@@ -16633,7 +16633,7 @@
       <c r="N104" s="72"/>
       <c r="O104" s="72"/>
     </row>
-    <row r="105" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="72" t="s">
         <v>215</v>
       </c>
@@ -16671,7 +16671,7 @@
       <c r="N106" s="72"/>
       <c r="O106" s="72"/>
     </row>
-    <row r="107" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="72" t="s">
         <v>216</v>
       </c>
@@ -16690,7 +16690,7 @@
       <c r="N107" s="72"/>
       <c r="O107" s="72"/>
     </row>
-    <row r="108" spans="1:16" s="13" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" s="13" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="72" t="s">
         <v>217</v>
       </c>
@@ -16709,7 +16709,7 @@
       <c r="N108" s="72"/>
       <c r="O108" s="72"/>
     </row>
-    <row r="109" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="73" t="s">
         <v>115</v>
       </c>
@@ -16728,7 +16728,7 @@
       <c r="N109" s="73"/>
       <c r="O109" s="73"/>
     </row>
-    <row r="110" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="72" t="s">
         <v>218</v>
       </c>
@@ -16768,25 +16768,25 @@
       <c r="P111" s="23"/>
     </row>
     <row r="112" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="93" t="s">
+      <c r="A112" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="B112" s="94"/>
-      <c r="C112" s="94"/>
-      <c r="D112" s="94"/>
-      <c r="E112" s="94"/>
-      <c r="F112" s="94"/>
-      <c r="G112" s="94"/>
-      <c r="H112" s="94"/>
-      <c r="I112" s="94"/>
-      <c r="J112" s="94"/>
-      <c r="K112" s="94"/>
-      <c r="L112" s="94"/>
-      <c r="M112" s="94"/>
-      <c r="N112" s="94"/>
-      <c r="O112" s="94"/>
-    </row>
-    <row r="113" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="88"/>
+      <c r="C112" s="88"/>
+      <c r="D112" s="88"/>
+      <c r="E112" s="88"/>
+      <c r="F112" s="88"/>
+      <c r="G112" s="88"/>
+      <c r="H112" s="88"/>
+      <c r="I112" s="88"/>
+      <c r="J112" s="88"/>
+      <c r="K112" s="88"/>
+      <c r="L112" s="88"/>
+      <c r="M112" s="88"/>
+      <c r="N112" s="88"/>
+      <c r="O112" s="88"/>
+    </row>
+    <row r="113" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="72" t="s">
         <v>221</v>
       </c>
@@ -16805,7 +16805,7 @@
       <c r="N113" s="72"/>
       <c r="O113" s="72"/>
     </row>
-    <row r="114" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="72" t="s">
         <v>110</v>
       </c>
@@ -16900,7 +16900,7 @@
       <c r="N118" s="72"/>
       <c r="O118" s="72"/>
     </row>
-    <row r="119" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="73" t="s">
         <v>103</v>
       </c>
@@ -16938,7 +16938,7 @@
       <c r="N120" s="73"/>
       <c r="O120" s="73"/>
     </row>
-    <row r="121" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="73" t="s">
         <v>219</v>
       </c>
@@ -20235,7 +20235,7 @@
       <c r="N132" s="73"/>
       <c r="O132" s="73"/>
     </row>
-    <row r="133" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="73" t="s">
         <v>164</v>
       </c>
@@ -20254,7 +20254,7 @@
       <c r="N133" s="73"/>
       <c r="O133" s="73"/>
     </row>
-    <row r="134" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="73" t="s">
         <v>163</v>
       </c>
@@ -20273,7 +20273,7 @@
       <c r="N134" s="73"/>
       <c r="O134" s="73"/>
     </row>
-    <row r="135" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="72" t="s">
         <v>162</v>
       </c>
@@ -20293,139 +20293,187 @@
       <c r="O135" s="72"/>
     </row>
     <row r="136" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="63" t="s">
+      <c r="A136" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="63"/>
-      <c r="C136" s="63"/>
-      <c r="D136" s="63"/>
-      <c r="E136" s="63"/>
-      <c r="F136" s="63"/>
-      <c r="G136" s="63"/>
-      <c r="H136" s="63"/>
-      <c r="I136" s="63"/>
-      <c r="J136" s="63"/>
-      <c r="K136" s="63"/>
-      <c r="L136" s="63"/>
-      <c r="M136" s="63"/>
-      <c r="N136" s="63"/>
-      <c r="O136" s="63"/>
-    </row>
-    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="67"/>
+      <c r="C136" s="67"/>
+      <c r="D136" s="67"/>
+      <c r="E136" s="67"/>
+      <c r="F136" s="67"/>
+      <c r="G136" s="67"/>
+      <c r="H136" s="67"/>
+      <c r="I136" s="67"/>
+      <c r="J136" s="67"/>
+      <c r="K136" s="67"/>
+      <c r="L136" s="67"/>
+      <c r="M136" s="67"/>
+      <c r="N136" s="67"/>
+      <c r="O136" s="67"/>
+    </row>
+    <row r="137" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
     </row>
-    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
     </row>
-    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
     </row>
-    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
     </row>
-    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
     </row>
-    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
       <c r="B142" s="5"/>
     </row>
-    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
       <c r="B143" s="5"/>
     </row>
-    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
     </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
     </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6"/>
       <c r="B146" s="5"/>
     </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6"/>
       <c r="B147" s="5"/>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
     </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153"/>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="154" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="155" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="157" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="158" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="159" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="160" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="64">
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A133:O133"/>
+    <mergeCell ref="A134:O134"/>
+    <mergeCell ref="A135:O135"/>
+    <mergeCell ref="A129:O129"/>
+    <mergeCell ref="A130:O130"/>
+    <mergeCell ref="A131:O131"/>
+    <mergeCell ref="A132:O132"/>
+    <mergeCell ref="A126:O126"/>
+    <mergeCell ref="A127:O127"/>
+    <mergeCell ref="B43:O43"/>
+    <mergeCell ref="B44:O44"/>
+    <mergeCell ref="B92:XFD92"/>
+    <mergeCell ref="A98:O98"/>
+    <mergeCell ref="A99:O99"/>
+    <mergeCell ref="A100:O100"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A122:O122"/>
+    <mergeCell ref="A123:O123"/>
+    <mergeCell ref="A124:O124"/>
+    <mergeCell ref="A125:O125"/>
+    <mergeCell ref="A109:O109"/>
+    <mergeCell ref="A110:O110"/>
+    <mergeCell ref="A112:O112"/>
+    <mergeCell ref="A113:O113"/>
+    <mergeCell ref="A114:O114"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B42:O42"/>
+    <mergeCell ref="A121:O121"/>
+    <mergeCell ref="A116:O116"/>
+    <mergeCell ref="A105:O105"/>
+    <mergeCell ref="A106:O106"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B85:O85"/>
+    <mergeCell ref="A101:O101"/>
+    <mergeCell ref="A102:O102"/>
+    <mergeCell ref="B88:O88"/>
+    <mergeCell ref="A108:O108"/>
+    <mergeCell ref="A103:O103"/>
+    <mergeCell ref="A104:O104"/>
+    <mergeCell ref="A128:O128"/>
+    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="A117:O117"/>
+    <mergeCell ref="A118:O118"/>
+    <mergeCell ref="A120:O120"/>
+    <mergeCell ref="A111:O111"/>
+    <mergeCell ref="A119:O119"/>
+    <mergeCell ref="A115:O115"/>
     <mergeCell ref="A136:O136"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A4:O4"/>
@@ -20442,54 +20490,6 @@
     <mergeCell ref="B8:O8"/>
     <mergeCell ref="B73:O73"/>
     <mergeCell ref="A107:O107"/>
-    <mergeCell ref="A108:O108"/>
-    <mergeCell ref="A103:O103"/>
-    <mergeCell ref="A104:O104"/>
-    <mergeCell ref="A128:O128"/>
-    <mergeCell ref="B82:H82"/>
-    <mergeCell ref="A117:O117"/>
-    <mergeCell ref="A118:O118"/>
-    <mergeCell ref="A120:O120"/>
-    <mergeCell ref="A111:O111"/>
-    <mergeCell ref="A119:O119"/>
-    <mergeCell ref="A115:O115"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="B85:O85"/>
-    <mergeCell ref="A101:O101"/>
-    <mergeCell ref="A102:O102"/>
-    <mergeCell ref="B88:O88"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A122:O122"/>
-    <mergeCell ref="A123:O123"/>
-    <mergeCell ref="A124:O124"/>
-    <mergeCell ref="A125:O125"/>
-    <mergeCell ref="A109:O109"/>
-    <mergeCell ref="A110:O110"/>
-    <mergeCell ref="A112:O112"/>
-    <mergeCell ref="A113:O113"/>
-    <mergeCell ref="A114:O114"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B42:O42"/>
-    <mergeCell ref="A121:O121"/>
-    <mergeCell ref="A116:O116"/>
-    <mergeCell ref="A105:O105"/>
-    <mergeCell ref="A106:O106"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A133:O133"/>
-    <mergeCell ref="A134:O134"/>
-    <mergeCell ref="A135:O135"/>
-    <mergeCell ref="A129:O129"/>
-    <mergeCell ref="A130:O130"/>
-    <mergeCell ref="A131:O131"/>
-    <mergeCell ref="A132:O132"/>
-    <mergeCell ref="A126:O126"/>
-    <mergeCell ref="A127:O127"/>
-    <mergeCell ref="B43:O43"/>
-    <mergeCell ref="B44:O44"/>
-    <mergeCell ref="B92:XFD92"/>
-    <mergeCell ref="A98:O98"/>
-    <mergeCell ref="A99:O99"/>
-    <mergeCell ref="A100:O100"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A136" r:id="rId1" location="copyright-and-creative-commons" xr:uid="{6AD3560C-F4A6-4DC3-AD99-A3282DAE3E33}"/>

--- a/solutions/2-raw-data/national-health-survey-2022-table-1.xlsx
+++ b/solutions/2-raw-data/national-health-survey-2022-table-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z3509778_ad_unsw_edu_au/Documents/Data Vis Workshop/Materials/solutions/2-raw-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\National Health Survey (NHS)\NHS 2022 (IHMHS)\06 Dissemination\02 S&amp;T\01. SM BL Table 1\National release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBEBEB1-F766-4AC0-8D0E-E4225062CD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="-120" windowWidth="24660" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -1314,23 +1314,36 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="8"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1340,24 +1353,11 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1365,14 +1365,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1391,6 +1385,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1975,55 +1975,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" style="2" customWidth="1"/>
     <col min="2" max="2" width="76" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="8.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2" hidden="1"/>
+    <col min="3" max="8" width="8.88671875" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:2" ht="0.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="65"/>
-    </row>
-    <row r="3" spans="1:2" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="B2" s="70"/>
+    </row>
+    <row r="3" spans="1:2" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="68"/>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="B4" s="66"/>
+      <c r="B4" s="71"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="66"/>
-    </row>
-    <row r="6" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="63"/>
-    </row>
-    <row r="7" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="71"/>
+    </row>
+    <row r="6" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="68"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -2063,51 +2063,57 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="s">
+    <row r="12" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="68"/>
-    </row>
-    <row r="13" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="69" t="s">
+      <c r="B12" s="64"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="69"/>
+      <c r="B13" s="65"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="70"/>
+      <c r="B14" s="66"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="67"/>
+      <c r="B15" s="63"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="71"/>
+      <c r="B16" s="67"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="67"/>
+      <c r="B17" s="63"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="67"/>
+      <c r="B18" s="63"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
@@ -2115,12 +2121,6 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" xr:uid="{D853CCD8-0DB5-475E-88CC-6E192D608812}"/>
@@ -2156,49 +2156,49 @@
       <selection pane="bottomRight" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="9.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="9.77734375" style="2" customWidth="1"/>
     <col min="9" max="9" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="2" hidden="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:8" ht="0.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-    </row>
-    <row r="3" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+    </row>
+    <row r="3" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="78" t="s">
@@ -2212,7 +2212,7 @@
       <c r="G4" s="78"/>
       <c r="H4" s="78"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <v>2001</v>
       </c>
@@ -2235,39 +2235,39 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="74" t="s">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="74" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
@@ -2451,17 +2451,17 @@
         <v>25428.9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
@@ -2801,7 +2801,7 @@
         <v>25428.9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>19</v>
       </c>
@@ -2827,29 +2827,29 @@
         <v>25428.9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
@@ -3033,7 +3033,7 @@
         <v>3107.3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
         <v>52</v>
       </c>
@@ -3059,53 +3059,53 @@
         <v>20726.3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="46" t="s">
@@ -3241,13 +3241,13 @@
       <c r="A50" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="46" t="s">
@@ -3357,13 +3357,13 @@
       <c r="A55" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B55" s="76"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="81"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
@@ -3655,13 +3655,13 @@
       <c r="A67" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="B67" s="77"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="77"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
     </row>
     <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
@@ -3771,13 +3771,13 @@
       <c r="A72" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B72" s="77"/>
-      <c r="C72" s="77"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="77"/>
-      <c r="H72" s="77"/>
+      <c r="B72" s="74"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
@@ -3913,13 +3913,13 @@
       <c r="A78" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="B78" s="76"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="76"/>
-      <c r="E78" s="76"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="76"/>
-      <c r="H78" s="76"/>
+      <c r="B78" s="81"/>
+      <c r="C78" s="81"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="81"/>
+      <c r="F78" s="81"/>
+      <c r="G78" s="81"/>
+      <c r="H78" s="81"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
@@ -3977,13 +3977,13 @@
       <c r="A81" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B81" s="76"/>
-      <c r="C81" s="76"/>
-      <c r="D81" s="76"/>
-      <c r="E81" s="76"/>
-      <c r="F81" s="76"/>
-      <c r="G81" s="76"/>
-      <c r="H81" s="76"/>
+      <c r="B81" s="81"/>
+      <c r="C81" s="81"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="81"/>
+      <c r="F81" s="81"/>
+      <c r="G81" s="81"/>
+      <c r="H81" s="81"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
@@ -4041,13 +4041,13 @@
       <c r="A84" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B84" s="77"/>
-      <c r="C84" s="77"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="77"/>
-      <c r="F84" s="77"/>
-      <c r="G84" s="77"/>
-      <c r="H84" s="77"/>
+      <c r="B84" s="74"/>
+      <c r="C84" s="74"/>
+      <c r="D84" s="74"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="74"/>
+      <c r="G84" s="74"/>
+      <c r="H84" s="74"/>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
@@ -4105,13 +4105,13 @@
       <c r="A87" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B87" s="77"/>
-      <c r="C87" s="77"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="77"/>
-      <c r="F87" s="77"/>
-      <c r="G87" s="77"/>
-      <c r="H87" s="77"/>
+      <c r="B87" s="74"/>
+      <c r="C87" s="74"/>
+      <c r="D87" s="74"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="74"/>
+      <c r="H87" s="74"/>
     </row>
     <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
@@ -4195,13 +4195,13 @@
       <c r="A91" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="B91" s="77"/>
-      <c r="C91" s="77"/>
-      <c r="D91" s="77"/>
-      <c r="E91" s="77"/>
-      <c r="F91" s="77"/>
-      <c r="G91" s="77"/>
-      <c r="H91" s="77"/>
+      <c r="B91" s="74"/>
+      <c r="C91" s="74"/>
+      <c r="D91" s="74"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="74"/>
+      <c r="G91" s="74"/>
+      <c r="H91" s="74"/>
     </row>
     <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
@@ -4307,7 +4307,7 @@
         <v>19806.8</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>59</v>
       </c>
@@ -4334,16 +4334,16 @@
       </c>
     </row>
     <row r="97" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="81" t="s">
+      <c r="A97" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="B97" s="81"/>
-      <c r="C97" s="81"/>
-      <c r="D97" s="81"/>
-      <c r="E97" s="81"/>
-      <c r="F97" s="81"/>
-      <c r="G97" s="81"/>
-      <c r="H97" s="81"/>
+      <c r="B97" s="76"/>
+      <c r="C97" s="76"/>
+      <c r="D97" s="76"/>
+      <c r="E97" s="76"/>
+      <c r="F97" s="76"/>
+      <c r="G97" s="76"/>
+      <c r="H97" s="76"/>
     </row>
     <row r="98" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="72" t="s">
@@ -4417,7 +4417,7 @@
       <c r="G103" s="72"/>
       <c r="H103" s="72"/>
     </row>
-    <row r="104" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="72" t="s">
         <v>207</v>
       </c>
@@ -4441,7 +4441,7 @@
       <c r="G105" s="72"/>
       <c r="H105" s="72"/>
     </row>
-    <row r="106" spans="1:16" s="13" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" s="13" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="72" t="s">
         <v>208</v>
       </c>
@@ -4453,7 +4453,7 @@
       <c r="G106" s="72"/>
       <c r="H106" s="72"/>
     </row>
-    <row r="107" spans="1:16" s="13" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" s="13" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="72" t="s">
         <v>209</v>
       </c>
@@ -4477,7 +4477,7 @@
       <c r="G108" s="73"/>
       <c r="H108" s="73"/>
     </row>
-    <row r="109" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="72" t="s">
         <v>210</v>
       </c>
@@ -4489,7 +4489,7 @@
       <c r="G109" s="72"/>
       <c r="H109" s="72"/>
     </row>
-    <row r="110" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="73" t="s">
         <v>92</v>
       </c>
@@ -4501,17 +4501,17 @@
       <c r="G110" s="73"/>
       <c r="H110" s="73"/>
     </row>
-    <row r="111" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="80" t="s">
+    <row r="111" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="B111" s="80"/>
-      <c r="C111" s="80"/>
-      <c r="D111" s="80"/>
-      <c r="E111" s="80"/>
-      <c r="F111" s="80"/>
-      <c r="G111" s="80"/>
-      <c r="H111" s="80"/>
+      <c r="B111" s="75"/>
+      <c r="C111" s="75"/>
+      <c r="D111" s="75"/>
+      <c r="E111" s="75"/>
+      <c r="F111" s="75"/>
+      <c r="G111" s="75"/>
+      <c r="H111" s="75"/>
       <c r="I111" s="23"/>
       <c r="J111" s="23"/>
       <c r="K111" s="23"/>
@@ -4521,7 +4521,7 @@
       <c r="O111" s="23"/>
       <c r="P111" s="23"/>
     </row>
-    <row r="112" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="72" t="s">
         <v>211</v>
       </c>
@@ -4581,7 +4581,7 @@
       <c r="G116" s="73"/>
       <c r="H116" s="73"/>
     </row>
-    <row r="117" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="72" t="s">
         <v>99</v>
       </c>
@@ -4593,7 +4593,7 @@
       <c r="G117" s="72"/>
       <c r="H117" s="72"/>
     </row>
-    <row r="118" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="73" t="s">
         <v>100</v>
       </c>
@@ -4605,7 +4605,7 @@
       <c r="G118" s="73"/>
       <c r="H118" s="73"/>
     </row>
-    <row r="119" spans="1:8" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" s="14" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="73" t="s">
         <v>212</v>
       </c>
@@ -4617,7 +4617,7 @@
       <c r="G119" s="73"/>
       <c r="H119" s="73"/>
     </row>
-    <row r="120" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="73" t="s">
         <v>213</v>
       </c>
@@ -4665,7 +4665,7 @@
       <c r="G123" s="73"/>
       <c r="H123" s="73"/>
     </row>
-    <row r="124" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="73" t="s">
         <v>159</v>
       </c>
@@ -4701,7 +4701,7 @@
       <c r="G126" s="73"/>
       <c r="H126" s="73"/>
     </row>
-    <row r="127" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="73" t="s">
         <v>148</v>
       </c>
@@ -4713,7 +4713,7 @@
       <c r="G127" s="73"/>
       <c r="H127" s="73"/>
     </row>
-    <row r="128" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="73" t="s">
         <v>160</v>
       </c>
@@ -4761,7 +4761,7 @@
       <c r="G131" s="73"/>
       <c r="H131" s="73"/>
     </row>
-    <row r="132" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="73" t="s">
         <v>143</v>
       </c>
@@ -4773,7 +4773,7 @@
       <c r="G132" s="73"/>
       <c r="H132" s="73"/>
     </row>
-    <row r="133" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="73" t="s">
         <v>142</v>
       </c>
@@ -4798,16 +4798,16 @@
       <c r="H134" s="72"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="67" t="s">
+      <c r="A135" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B135" s="67"/>
-      <c r="C135" s="67"/>
-      <c r="D135" s="67"/>
-      <c r="E135" s="67"/>
-      <c r="F135" s="67"/>
-      <c r="G135" s="67"/>
-      <c r="H135" s="67"/>
+      <c r="B135" s="63"/>
+      <c r="C135" s="63"/>
+      <c r="D135" s="63"/>
+      <c r="E135" s="63"/>
+      <c r="F135" s="63"/>
+      <c r="G135" s="63"/>
+      <c r="H135" s="63"/>
     </row>
     <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
@@ -4885,6 +4885,52 @@
     <sortCondition ref="A101:A128"/>
   </sortState>
   <mergeCells count="62">
+    <mergeCell ref="A106:H106"/>
+    <mergeCell ref="A114:H114"/>
+    <mergeCell ref="A123:H123"/>
+    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A112:H112"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A131:H131"/>
+    <mergeCell ref="A122:H122"/>
+    <mergeCell ref="A120:H120"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="A100:H100"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="A135:H135"/>
+    <mergeCell ref="A132:H132"/>
+    <mergeCell ref="A113:H113"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A124:H124"/>
+    <mergeCell ref="A126:H126"/>
+    <mergeCell ref="A115:H115"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A117:H117"/>
+    <mergeCell ref="A118:H118"/>
+    <mergeCell ref="A119:H119"/>
+    <mergeCell ref="A125:H125"/>
+    <mergeCell ref="A134:H134"/>
+    <mergeCell ref="A129:H129"/>
+    <mergeCell ref="A130:H130"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B32:H32"/>
     <mergeCell ref="A99:H99"/>
     <mergeCell ref="A127:H127"/>
     <mergeCell ref="A101:H101"/>
@@ -4901,52 +4947,6 @@
     <mergeCell ref="A97:H97"/>
     <mergeCell ref="A98:H98"/>
     <mergeCell ref="B91:H91"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="A135:H135"/>
-    <mergeCell ref="A132:H132"/>
-    <mergeCell ref="A113:H113"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A124:H124"/>
-    <mergeCell ref="A126:H126"/>
-    <mergeCell ref="A115:H115"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A117:H117"/>
-    <mergeCell ref="A118:H118"/>
-    <mergeCell ref="A119:H119"/>
-    <mergeCell ref="A125:H125"/>
-    <mergeCell ref="A134:H134"/>
-    <mergeCell ref="A129:H129"/>
-    <mergeCell ref="A130:H130"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A131:H131"/>
-    <mergeCell ref="A122:H122"/>
-    <mergeCell ref="A120:H120"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="A100:H100"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="A106:H106"/>
-    <mergeCell ref="A114:H114"/>
-    <mergeCell ref="A123:H123"/>
-    <mergeCell ref="A128:H128"/>
-    <mergeCell ref="A112:H112"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A135" r:id="rId1" location="copyright-and-creative-commons" xr:uid="{C0E0FF31-7FD8-4137-B9CB-FE0910FC3031}"/>
@@ -4974,49 +4974,49 @@
       <selection pane="bottomRight" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="9.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="9.77734375" style="2" customWidth="1"/>
     <col min="9" max="9" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="2" hidden="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:8" ht="0.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-    </row>
-    <row r="3" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+    </row>
+    <row r="3" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="78" t="s">
@@ -5030,7 +5030,7 @@
       <c r="G4" s="78"/>
       <c r="H4" s="78"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <v>2001</v>
       </c>
@@ -5053,39 +5053,39 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="74" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
@@ -5269,17 +5269,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>19</v>
       </c>
@@ -5645,29 +5645,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
@@ -5851,7 +5851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
         <v>52</v>
       </c>
@@ -5877,53 +5877,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="46" t="s">
@@ -6059,13 +6059,13 @@
       <c r="A50" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="46" t="s">
@@ -6175,13 +6175,13 @@
       <c r="A55" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B55" s="76"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="81"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
@@ -6473,13 +6473,13 @@
       <c r="A67" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="B67" s="77"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="77"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
     </row>
     <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
@@ -6589,13 +6589,13 @@
       <c r="A72" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B72" s="77"/>
-      <c r="C72" s="77"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="77"/>
-      <c r="H72" s="77"/>
+      <c r="B72" s="74"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
@@ -6739,7 +6739,7 @@
       <c r="G78" s="84"/>
       <c r="H78" s="84"/>
     </row>
-    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
         <v>147</v>
       </c>
@@ -6803,7 +6803,7 @@
       <c r="G81" s="84"/>
       <c r="H81" s="84"/>
     </row>
-    <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
         <v>145</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="22" t="s">
         <v>144</v>
       </c>
@@ -6859,13 +6859,13 @@
       <c r="A84" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B84" s="86"/>
-      <c r="C84" s="86"/>
-      <c r="D84" s="86"/>
-      <c r="E84" s="86"/>
-      <c r="F84" s="86"/>
-      <c r="G84" s="86"/>
-      <c r="H84" s="86"/>
+      <c r="B84" s="83"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="83"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="83"/>
+      <c r="H84" s="83"/>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
@@ -6919,7 +6919,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="77" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="31" t="s">
         <v>157</v>
       </c>
@@ -7006,13 +7006,13 @@
       <c r="A91" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="B91" s="77"/>
-      <c r="C91" s="77"/>
-      <c r="D91" s="77"/>
-      <c r="E91" s="77"/>
-      <c r="F91" s="77"/>
-      <c r="G91" s="77"/>
-      <c r="H91" s="77"/>
+      <c r="B91" s="74"/>
+      <c r="C91" s="74"/>
+      <c r="D91" s="74"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="74"/>
+      <c r="G91" s="74"/>
+      <c r="H91" s="74"/>
     </row>
     <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>59</v>
       </c>
@@ -7144,19 +7144,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="81" t="s">
+    <row r="97" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="B97" s="81"/>
-      <c r="C97" s="81"/>
-      <c r="D97" s="81"/>
-      <c r="E97" s="81"/>
-      <c r="F97" s="81"/>
-      <c r="G97" s="81"/>
-      <c r="H97" s="81"/>
-    </row>
-    <row r="98" spans="1:16" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B97" s="76"/>
+      <c r="C97" s="76"/>
+      <c r="D97" s="76"/>
+      <c r="E97" s="76"/>
+      <c r="F97" s="76"/>
+      <c r="G97" s="76"/>
+      <c r="H97" s="76"/>
+    </row>
+    <row r="98" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="72" t="s">
         <v>72</v>
       </c>
@@ -7168,7 +7168,7 @@
       <c r="G98" s="72"/>
       <c r="H98" s="72"/>
     </row>
-    <row r="99" spans="1:16" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="72" t="s">
         <v>136</v>
       </c>
@@ -7204,7 +7204,7 @@
       <c r="G101" s="72"/>
       <c r="H101" s="72"/>
     </row>
-    <row r="102" spans="1:16" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="72" t="s">
         <v>76</v>
       </c>
@@ -7216,7 +7216,7 @@
       <c r="G102" s="72"/>
       <c r="H102" s="72"/>
     </row>
-    <row r="103" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="72" t="s">
         <v>207</v>
       </c>
@@ -7240,7 +7240,7 @@
       <c r="G104" s="72"/>
       <c r="H104" s="72"/>
     </row>
-    <row r="105" spans="1:16" s="13" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" s="13" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="72" t="s">
         <v>208</v>
       </c>
@@ -7252,7 +7252,7 @@
       <c r="G105" s="72"/>
       <c r="H105" s="72"/>
     </row>
-    <row r="106" spans="1:16" s="13" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" s="13" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="72" t="s">
         <v>209</v>
       </c>
@@ -7264,7 +7264,7 @@
       <c r="G106" s="72"/>
       <c r="H106" s="72"/>
     </row>
-    <row r="107" spans="1:16" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="73" t="s">
         <v>88</v>
       </c>
@@ -7276,7 +7276,7 @@
       <c r="G107" s="73"/>
       <c r="H107" s="73"/>
     </row>
-    <row r="108" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="72" t="s">
         <v>210</v>
       </c>
@@ -7288,7 +7288,7 @@
       <c r="G108" s="72"/>
       <c r="H108" s="72"/>
     </row>
-    <row r="109" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="73" t="s">
         <v>92</v>
       </c>
@@ -7300,17 +7300,17 @@
       <c r="G109" s="73"/>
       <c r="H109" s="73"/>
     </row>
-    <row r="110" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="80" t="s">
+    <row r="110" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="B110" s="80"/>
-      <c r="C110" s="80"/>
-      <c r="D110" s="80"/>
-      <c r="E110" s="80"/>
-      <c r="F110" s="80"/>
-      <c r="G110" s="80"/>
-      <c r="H110" s="80"/>
+      <c r="B110" s="75"/>
+      <c r="C110" s="75"/>
+      <c r="D110" s="75"/>
+      <c r="E110" s="75"/>
+      <c r="F110" s="75"/>
+      <c r="G110" s="75"/>
+      <c r="H110" s="75"/>
       <c r="I110" s="23"/>
       <c r="J110" s="23"/>
       <c r="K110" s="23"/>
@@ -7320,7 +7320,7 @@
       <c r="O110" s="23"/>
       <c r="P110" s="23"/>
     </row>
-    <row r="111" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="72" t="s">
         <v>211</v>
       </c>
@@ -7332,7 +7332,7 @@
       <c r="G111" s="72"/>
       <c r="H111" s="72"/>
     </row>
-    <row r="112" spans="1:16" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="72" t="s">
         <v>78</v>
       </c>
@@ -7344,7 +7344,7 @@
       <c r="G112" s="72"/>
       <c r="H112" s="72"/>
     </row>
-    <row r="113" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="72" t="s">
         <v>94</v>
       </c>
@@ -7368,7 +7368,7 @@
       <c r="G114" s="72"/>
       <c r="H114" s="72"/>
     </row>
-    <row r="115" spans="1:8" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="73" t="s">
         <v>158</v>
       </c>
@@ -7380,7 +7380,7 @@
       <c r="G115" s="73"/>
       <c r="H115" s="73"/>
     </row>
-    <row r="116" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="72" t="s">
         <v>99</v>
       </c>
@@ -7392,7 +7392,7 @@
       <c r="G116" s="72"/>
       <c r="H116" s="72"/>
     </row>
-    <row r="117" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="73" t="s">
         <v>100</v>
       </c>
@@ -7404,7 +7404,7 @@
       <c r="G117" s="73"/>
       <c r="H117" s="73"/>
     </row>
-    <row r="118" spans="1:8" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="73" t="s">
         <v>212</v>
       </c>
@@ -7429,112 +7429,112 @@
       <c r="H119" s="73"/>
     </row>
     <row r="120" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="83" t="s">
+      <c r="A120" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="B120" s="83"/>
-      <c r="C120" s="83"/>
-      <c r="D120" s="83"/>
-      <c r="E120" s="83"/>
-      <c r="F120" s="83"/>
-      <c r="G120" s="83"/>
-      <c r="H120" s="83"/>
-    </row>
-    <row r="121" spans="1:8" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="83" t="s">
+      <c r="B120" s="82"/>
+      <c r="C120" s="82"/>
+      <c r="D120" s="82"/>
+      <c r="E120" s="82"/>
+      <c r="F120" s="82"/>
+      <c r="G120" s="82"/>
+      <c r="H120" s="82"/>
+    </row>
+    <row r="121" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="82" t="s">
         <v>232</v>
       </c>
-      <c r="B121" s="83"/>
-      <c r="C121" s="83"/>
-      <c r="D121" s="83"/>
-      <c r="E121" s="83"/>
-      <c r="F121" s="83"/>
-      <c r="G121" s="83"/>
-      <c r="H121" s="83"/>
+      <c r="B121" s="82"/>
+      <c r="C121" s="82"/>
+      <c r="D121" s="82"/>
+      <c r="E121" s="82"/>
+      <c r="F121" s="82"/>
+      <c r="G121" s="82"/>
+      <c r="H121" s="82"/>
     </row>
     <row r="122" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="B122" s="83"/>
-      <c r="C122" s="83"/>
-      <c r="D122" s="83"/>
-      <c r="E122" s="83"/>
-      <c r="F122" s="83"/>
-      <c r="G122" s="83"/>
-      <c r="H122" s="83"/>
+      <c r="B122" s="82"/>
+      <c r="C122" s="82"/>
+      <c r="D122" s="82"/>
+      <c r="E122" s="82"/>
+      <c r="F122" s="82"/>
+      <c r="G122" s="82"/>
+      <c r="H122" s="82"/>
     </row>
     <row r="123" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="83" t="s">
+      <c r="A123" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="B123" s="83"/>
-      <c r="C123" s="83"/>
-      <c r="D123" s="83"/>
-      <c r="E123" s="83"/>
-      <c r="F123" s="83"/>
-      <c r="G123" s="83"/>
-      <c r="H123" s="83"/>
+      <c r="B123" s="82"/>
+      <c r="C123" s="82"/>
+      <c r="D123" s="82"/>
+      <c r="E123" s="82"/>
+      <c r="F123" s="82"/>
+      <c r="G123" s="82"/>
+      <c r="H123" s="82"/>
     </row>
     <row r="124" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="83" t="s">
+      <c r="A124" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="B124" s="83"/>
-      <c r="C124" s="83"/>
-      <c r="D124" s="83"/>
-      <c r="E124" s="83"/>
-      <c r="F124" s="83"/>
-      <c r="G124" s="83"/>
-      <c r="H124" s="83"/>
+      <c r="B124" s="82"/>
+      <c r="C124" s="82"/>
+      <c r="D124" s="82"/>
+      <c r="E124" s="82"/>
+      <c r="F124" s="82"/>
+      <c r="G124" s="82"/>
+      <c r="H124" s="82"/>
     </row>
     <row r="125" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="83" t="s">
+      <c r="A125" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="B125" s="83"/>
-      <c r="C125" s="83"/>
-      <c r="D125" s="83"/>
-      <c r="E125" s="83"/>
-      <c r="F125" s="83"/>
-      <c r="G125" s="83"/>
-      <c r="H125" s="83"/>
+      <c r="B125" s="82"/>
+      <c r="C125" s="82"/>
+      <c r="D125" s="82"/>
+      <c r="E125" s="82"/>
+      <c r="F125" s="82"/>
+      <c r="G125" s="82"/>
+      <c r="H125" s="82"/>
     </row>
     <row r="126" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="83" t="s">
+      <c r="A126" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="B126" s="83"/>
-      <c r="C126" s="83"/>
-      <c r="D126" s="83"/>
-      <c r="E126" s="83"/>
-      <c r="F126" s="83"/>
-      <c r="G126" s="83"/>
-      <c r="H126" s="83"/>
+      <c r="B126" s="82"/>
+      <c r="C126" s="82"/>
+      <c r="D126" s="82"/>
+      <c r="E126" s="82"/>
+      <c r="F126" s="82"/>
+      <c r="G126" s="82"/>
+      <c r="H126" s="82"/>
     </row>
     <row r="127" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="83" t="s">
+      <c r="A127" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="B127" s="83"/>
-      <c r="C127" s="83"/>
-      <c r="D127" s="83"/>
-      <c r="E127" s="83"/>
-      <c r="F127" s="83"/>
-      <c r="G127" s="83"/>
-      <c r="H127" s="83"/>
+      <c r="B127" s="82"/>
+      <c r="C127" s="82"/>
+      <c r="D127" s="82"/>
+      <c r="E127" s="82"/>
+      <c r="F127" s="82"/>
+      <c r="G127" s="82"/>
+      <c r="H127" s="82"/>
     </row>
     <row r="128" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="83" t="s">
+      <c r="A128" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="B128" s="83"/>
-      <c r="C128" s="83"/>
-      <c r="D128" s="83"/>
-      <c r="E128" s="83"/>
-      <c r="F128" s="83"/>
-      <c r="G128" s="83"/>
-      <c r="H128" s="83"/>
+      <c r="B128" s="82"/>
+      <c r="C128" s="82"/>
+      <c r="D128" s="82"/>
+      <c r="E128" s="82"/>
+      <c r="F128" s="82"/>
+      <c r="G128" s="82"/>
+      <c r="H128" s="82"/>
     </row>
     <row r="129" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="73" t="s">
@@ -7549,64 +7549,64 @@
       <c r="H129" s="73"/>
     </row>
     <row r="130" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="83" t="s">
+      <c r="A130" s="82" t="s">
         <v>222</v>
       </c>
-      <c r="B130" s="83"/>
-      <c r="C130" s="83"/>
-      <c r="D130" s="83"/>
-      <c r="E130" s="83"/>
-      <c r="F130" s="83"/>
-      <c r="G130" s="83"/>
-      <c r="H130" s="83"/>
+      <c r="B130" s="82"/>
+      <c r="C130" s="82"/>
+      <c r="D130" s="82"/>
+      <c r="E130" s="82"/>
+      <c r="F130" s="82"/>
+      <c r="G130" s="82"/>
+      <c r="H130" s="82"/>
     </row>
     <row r="131" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="83" t="s">
+      <c r="A131" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="B131" s="83"/>
-      <c r="C131" s="83"/>
-      <c r="D131" s="83"/>
-      <c r="E131" s="83"/>
-      <c r="F131" s="83"/>
-      <c r="G131" s="83"/>
-      <c r="H131" s="83"/>
+      <c r="B131" s="82"/>
+      <c r="C131" s="82"/>
+      <c r="D131" s="82"/>
+      <c r="E131" s="82"/>
+      <c r="F131" s="82"/>
+      <c r="G131" s="82"/>
+      <c r="H131" s="82"/>
     </row>
     <row r="132" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="83" t="s">
+      <c r="A132" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="B132" s="83"/>
-      <c r="C132" s="83"/>
-      <c r="D132" s="83"/>
-      <c r="E132" s="83"/>
-      <c r="F132" s="83"/>
-      <c r="G132" s="83"/>
-      <c r="H132" s="83"/>
+      <c r="B132" s="82"/>
+      <c r="C132" s="82"/>
+      <c r="D132" s="82"/>
+      <c r="E132" s="82"/>
+      <c r="F132" s="82"/>
+      <c r="G132" s="82"/>
+      <c r="H132" s="82"/>
     </row>
     <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="82" t="s">
+      <c r="A133" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="B133" s="82"/>
-      <c r="C133" s="82"/>
-      <c r="D133" s="82"/>
-      <c r="E133" s="82"/>
-      <c r="F133" s="82"/>
-      <c r="G133" s="82"/>
-      <c r="H133" s="82"/>
+      <c r="B133" s="86"/>
+      <c r="C133" s="86"/>
+      <c r="D133" s="86"/>
+      <c r="E133" s="86"/>
+      <c r="F133" s="86"/>
+      <c r="G133" s="86"/>
+      <c r="H133" s="86"/>
     </row>
     <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="67" t="s">
+      <c r="A134" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B134" s="67"/>
-      <c r="C134" s="67"/>
-      <c r="D134" s="67"/>
-      <c r="E134" s="67"/>
-      <c r="F134" s="67"/>
-      <c r="G134" s="67"/>
-      <c r="H134" s="67"/>
+      <c r="B134" s="63"/>
+      <c r="C134" s="63"/>
+      <c r="D134" s="63"/>
+      <c r="E134" s="63"/>
+      <c r="F134" s="63"/>
+      <c r="G134" s="63"/>
+      <c r="H134" s="63"/>
     </row>
     <row r="135" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
@@ -7681,6 +7681,51 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="61">
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A132:H132"/>
+    <mergeCell ref="A131:H131"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="A99:H99"/>
+    <mergeCell ref="A111:H111"/>
+    <mergeCell ref="A100:H100"/>
+    <mergeCell ref="A101:H101"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A103:H103"/>
+    <mergeCell ref="A104:H104"/>
+    <mergeCell ref="A105:H105"/>
+    <mergeCell ref="A106:H106"/>
+    <mergeCell ref="A107:H107"/>
+    <mergeCell ref="A108:H108"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A98:H98"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="B87:XFD87"/>
+    <mergeCell ref="A110:H110"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="A123:H123"/>
+    <mergeCell ref="A112:H112"/>
+    <mergeCell ref="A113:H113"/>
+    <mergeCell ref="A114:H114"/>
+    <mergeCell ref="A115:H115"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A117:H117"/>
+    <mergeCell ref="A119:H119"/>
+    <mergeCell ref="A120:H120"/>
+    <mergeCell ref="A121:H121"/>
+    <mergeCell ref="A122:H122"/>
+    <mergeCell ref="A118:H118"/>
     <mergeCell ref="A134:H134"/>
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="B16:H16"/>
@@ -7697,51 +7742,6 @@
     <mergeCell ref="A127:H127"/>
     <mergeCell ref="A128:H128"/>
     <mergeCell ref="A129:H129"/>
-    <mergeCell ref="A110:H110"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="A123:H123"/>
-    <mergeCell ref="A112:H112"/>
-    <mergeCell ref="A113:H113"/>
-    <mergeCell ref="A114:H114"/>
-    <mergeCell ref="A115:H115"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="A117:H117"/>
-    <mergeCell ref="A119:H119"/>
-    <mergeCell ref="A120:H120"/>
-    <mergeCell ref="A121:H121"/>
-    <mergeCell ref="A122:H122"/>
-    <mergeCell ref="A118:H118"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A98:H98"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="B87:XFD87"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A132:H132"/>
-    <mergeCell ref="A131:H131"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="A99:H99"/>
-    <mergeCell ref="A111:H111"/>
-    <mergeCell ref="A100:H100"/>
-    <mergeCell ref="A101:H101"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A103:H103"/>
-    <mergeCell ref="A104:H104"/>
-    <mergeCell ref="A105:H105"/>
-    <mergeCell ref="A106:H106"/>
-    <mergeCell ref="A107:H107"/>
-    <mergeCell ref="A108:H108"/>
-    <mergeCell ref="A109:H109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A134" r:id="rId1" location="copyright-and-creative-commons" xr:uid="{33DE827C-ADFC-436F-8FDD-D05687ADE13F}"/>
@@ -7761,118 +7761,118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E67C7FB-8D2B-46B4-9049-7B899BA2A066}">
   <dimension ref="A1:O212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B91" sqref="B91:H91"/>
       <selection pane="topRight" activeCell="B91" sqref="B91:H91"/>
       <selection pane="bottomLeft" activeCell="B91" sqref="B91:H91"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="9.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="2" hidden="1"/>
+    <col min="1" max="1" width="71.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="9.77734375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:15" ht="0.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-    </row>
-    <row r="3" spans="1:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+    </row>
+    <row r="3" spans="1:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="88" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="92" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="93" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+    </row>
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="28">
         <v>2001</v>
       </c>
@@ -7916,60 +7916,60 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="74" t="s">
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
@@ -8300,24 +8300,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
@@ -8930,7 +8930,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
         <v>19</v>
       </c>
@@ -8977,43 +8977,43 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="94"/>
-    </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+    </row>
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="31" t="s">
@@ -9344,7 +9344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45" t="s">
         <v>52</v>
       </c>
@@ -9391,81 +9391,81 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-    </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="80"/>
+      <c r="O42" s="80"/>
+    </row>
+    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="77"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
     </row>
     <row r="44" spans="1:15" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="77"/>
-      <c r="O44" s="77"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="77"/>
-      <c r="O45" s="77"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="74"/>
     </row>
     <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="46" t="s">
@@ -9706,20 +9706,20 @@
       <c r="A51" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="77"/>
-      <c r="M51" s="77"/>
-      <c r="N51" s="77"/>
-      <c r="O51" s="77"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="74"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="74"/>
     </row>
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="46" t="s">
@@ -9913,20 +9913,20 @@
       <c r="A56" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B56" s="76"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="76"/>
-      <c r="H56" s="76"/>
-      <c r="I56" s="76"/>
-      <c r="J56" s="76"/>
-      <c r="K56" s="76"/>
-      <c r="L56" s="76"/>
-      <c r="M56" s="76"/>
-      <c r="N56" s="76"/>
-      <c r="O56" s="76"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="81"/>
+      <c r="K56" s="81"/>
+      <c r="L56" s="81"/>
+      <c r="M56" s="81"/>
+      <c r="N56" s="81"/>
+      <c r="O56" s="81"/>
     </row>
     <row r="57" spans="1:15" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
@@ -10449,20 +10449,20 @@
       <c r="A68" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B68" s="77"/>
-      <c r="C68" s="77"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="77"/>
-      <c r="J68" s="77"/>
-      <c r="K68" s="77"/>
-      <c r="L68" s="77"/>
-      <c r="M68" s="77"/>
-      <c r="N68" s="77"/>
-      <c r="O68" s="77"/>
+      <c r="B68" s="74"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="74"/>
+      <c r="K68" s="74"/>
+      <c r="L68" s="74"/>
+      <c r="M68" s="74"/>
+      <c r="N68" s="74"/>
+      <c r="O68" s="74"/>
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
@@ -10656,20 +10656,20 @@
       <c r="A73" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="B73" s="77"/>
-      <c r="C73" s="77"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="77"/>
-      <c r="G73" s="77"/>
-      <c r="H73" s="77"/>
-      <c r="I73" s="77"/>
-      <c r="J73" s="77"/>
-      <c r="K73" s="77"/>
-      <c r="L73" s="77"/>
-      <c r="M73" s="77"/>
-      <c r="N73" s="77"/>
-      <c r="O73" s="77"/>
+      <c r="B73" s="74"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="74"/>
+      <c r="I73" s="74"/>
+      <c r="J73" s="74"/>
+      <c r="K73" s="74"/>
+      <c r="L73" s="74"/>
+      <c r="M73" s="74"/>
+      <c r="N73" s="74"/>
+      <c r="O73" s="74"/>
     </row>
     <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
@@ -10859,7 +10859,7 @@
         <v>95.9</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="22" t="s">
         <v>175</v>
       </c>
@@ -10910,22 +10910,22 @@
       <c r="A79" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="B79" s="77"/>
-      <c r="C79" s="77"/>
-      <c r="D79" s="77"/>
-      <c r="E79" s="77"/>
-      <c r="F79" s="77"/>
-      <c r="G79" s="77"/>
-      <c r="H79" s="77"/>
-      <c r="I79" s="77"/>
-      <c r="J79" s="77"/>
-      <c r="K79" s="77"/>
-      <c r="L79" s="77"/>
-      <c r="M79" s="77"/>
-      <c r="N79" s="77"/>
-      <c r="O79" s="77"/>
-    </row>
-    <row r="80" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B79" s="74"/>
+      <c r="C79" s="74"/>
+      <c r="D79" s="74"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="74"/>
+      <c r="G79" s="74"/>
+      <c r="H79" s="74"/>
+      <c r="I79" s="74"/>
+      <c r="J79" s="74"/>
+      <c r="K79" s="74"/>
+      <c r="L79" s="74"/>
+      <c r="M79" s="74"/>
+      <c r="N79" s="74"/>
+      <c r="O79" s="74"/>
+    </row>
+    <row r="80" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
         <v>169</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="81" spans="1:15" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="22" t="s">
         <v>177</v>
       </c>
@@ -11023,22 +11023,22 @@
       <c r="A82" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B82" s="77"/>
-      <c r="C82" s="77"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="77"/>
-      <c r="H82" s="77"/>
-      <c r="I82" s="77"/>
-      <c r="J82" s="77"/>
-      <c r="K82" s="77"/>
-      <c r="L82" s="77"/>
-      <c r="M82" s="77"/>
-      <c r="N82" s="77"/>
-      <c r="O82" s="77"/>
-    </row>
-    <row r="83" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B82" s="74"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="74"/>
+      <c r="H82" s="74"/>
+      <c r="I82" s="74"/>
+      <c r="J82" s="74"/>
+      <c r="K82" s="74"/>
+      <c r="L82" s="74"/>
+      <c r="M82" s="74"/>
+      <c r="N82" s="74"/>
+      <c r="O82" s="74"/>
+    </row>
+    <row r="83" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
         <v>167</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="22" t="s">
         <v>165</v>
       </c>
@@ -11132,24 +11132,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:15" s="17" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B85" s="76"/>
-      <c r="C85" s="76"/>
-      <c r="D85" s="76"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="76"/>
-      <c r="H85" s="76"/>
-      <c r="I85" s="76"/>
-      <c r="J85" s="76"/>
-      <c r="K85" s="76"/>
-      <c r="L85" s="76"/>
-      <c r="M85" s="76"/>
-      <c r="N85" s="76"/>
-      <c r="O85" s="76"/>
+      <c r="B85" s="81"/>
+      <c r="C85" s="81"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="81"/>
+      <c r="F85" s="81"/>
+      <c r="G85" s="81"/>
+      <c r="H85" s="81"/>
+      <c r="I85" s="81"/>
+      <c r="J85" s="81"/>
+      <c r="K85" s="81"/>
+      <c r="L85" s="81"/>
+      <c r="M85" s="81"/>
+      <c r="N85" s="81"/>
+      <c r="O85" s="81"/>
     </row>
     <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
@@ -11249,20 +11249,20 @@
       <c r="A88" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="B88" s="77"/>
-      <c r="C88" s="77"/>
-      <c r="D88" s="77"/>
-      <c r="E88" s="77"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="77"/>
-      <c r="H88" s="77"/>
-      <c r="I88" s="77"/>
-      <c r="J88" s="77"/>
-      <c r="K88" s="77"/>
-      <c r="L88" s="77"/>
-      <c r="M88" s="77"/>
-      <c r="N88" s="77"/>
-      <c r="O88" s="77"/>
+      <c r="B88" s="74"/>
+      <c r="C88" s="74"/>
+      <c r="D88" s="74"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="74"/>
+      <c r="H88" s="74"/>
+      <c r="I88" s="74"/>
+      <c r="J88" s="74"/>
+      <c r="K88" s="74"/>
+      <c r="L88" s="74"/>
+      <c r="M88" s="74"/>
+      <c r="N88" s="74"/>
+      <c r="O88" s="74"/>
     </row>
     <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
@@ -11409,20 +11409,20 @@
       <c r="A92" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="B92" s="77"/>
-      <c r="C92" s="77"/>
-      <c r="D92" s="77"/>
-      <c r="E92" s="77"/>
-      <c r="F92" s="77"/>
-      <c r="G92" s="77"/>
-      <c r="H92" s="77"/>
-      <c r="I92" s="77"/>
-      <c r="J92" s="77"/>
-      <c r="K92" s="77"/>
-      <c r="L92" s="77"/>
-      <c r="M92" s="77"/>
-      <c r="N92" s="77"/>
-      <c r="O92" s="77"/>
+      <c r="B92" s="74"/>
+      <c r="C92" s="74"/>
+      <c r="D92" s="74"/>
+      <c r="E92" s="74"/>
+      <c r="F92" s="74"/>
+      <c r="G92" s="74"/>
+      <c r="H92" s="74"/>
+      <c r="I92" s="74"/>
+      <c r="J92" s="74"/>
+      <c r="K92" s="74"/>
+      <c r="L92" s="74"/>
+      <c r="M92" s="74"/>
+      <c r="N92" s="74"/>
+      <c r="O92" s="74"/>
     </row>
     <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
@@ -11612,7 +11612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:15" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="45" t="s">
         <v>59</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="72" t="s">
         <v>137</v>
       </c>
@@ -11678,7 +11678,7 @@
       <c r="N98" s="72"/>
       <c r="O98" s="72"/>
     </row>
-    <row r="99" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="72" t="s">
         <v>72</v>
       </c>
@@ -11697,7 +11697,7 @@
       <c r="N99" s="72"/>
       <c r="O99" s="72"/>
     </row>
-    <row r="100" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="72" t="s">
         <v>73</v>
       </c>
@@ -11716,7 +11716,7 @@
       <c r="N100" s="72"/>
       <c r="O100" s="72"/>
     </row>
-    <row r="101" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="73" t="s">
         <v>128</v>
       </c>
@@ -11735,7 +11735,7 @@
       <c r="N101" s="73"/>
       <c r="O101" s="73"/>
     </row>
-    <row r="102" spans="1:15" s="13" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" s="13" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="72" t="s">
         <v>126</v>
       </c>
@@ -11926,23 +11926,23 @@
       <c r="O111" s="73"/>
     </row>
     <row r="112" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="87" t="s">
+      <c r="A112" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="B112" s="88"/>
-      <c r="C112" s="88"/>
-      <c r="D112" s="88"/>
-      <c r="E112" s="88"/>
-      <c r="F112" s="88"/>
-      <c r="G112" s="88"/>
-      <c r="H112" s="88"/>
-      <c r="I112" s="88"/>
-      <c r="J112" s="88"/>
-      <c r="K112" s="88"/>
-      <c r="L112" s="88"/>
-      <c r="M112" s="88"/>
-      <c r="N112" s="88"/>
-      <c r="O112" s="88"/>
+      <c r="B112" s="94"/>
+      <c r="C112" s="94"/>
+      <c r="D112" s="94"/>
+      <c r="E112" s="94"/>
+      <c r="F112" s="94"/>
+      <c r="G112" s="94"/>
+      <c r="H112" s="94"/>
+      <c r="I112" s="94"/>
+      <c r="J112" s="94"/>
+      <c r="K112" s="94"/>
+      <c r="L112" s="94"/>
+      <c r="M112" s="94"/>
+      <c r="N112" s="94"/>
+      <c r="O112" s="94"/>
     </row>
     <row r="113" spans="1:15" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="72" t="s">
@@ -12382,23 +12382,23 @@
       <c r="O135" s="72"/>
     </row>
     <row r="136" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="67" t="s">
+      <c r="A136" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="67"/>
-      <c r="C136" s="67"/>
-      <c r="D136" s="67"/>
-      <c r="E136" s="67"/>
-      <c r="F136" s="67"/>
-      <c r="G136" s="67"/>
-      <c r="H136" s="67"/>
-      <c r="I136" s="67"/>
-      <c r="J136" s="67"/>
-      <c r="K136" s="67"/>
-      <c r="L136" s="67"/>
-      <c r="M136" s="67"/>
-      <c r="N136" s="67"/>
-      <c r="O136" s="67"/>
+      <c r="B136" s="63"/>
+      <c r="C136" s="63"/>
+      <c r="D136" s="63"/>
+      <c r="E136" s="63"/>
+      <c r="F136" s="63"/>
+      <c r="G136" s="63"/>
+      <c r="H136" s="63"/>
+      <c r="I136" s="63"/>
+      <c r="J136" s="63"/>
+      <c r="K136" s="63"/>
+      <c r="L136" s="63"/>
+      <c r="M136" s="63"/>
+      <c r="N136" s="63"/>
+      <c r="O136" s="63"/>
     </row>
     <row r="137" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
@@ -12531,6 +12531,54 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="64">
+    <mergeCell ref="A98:O98"/>
+    <mergeCell ref="B51:O51"/>
+    <mergeCell ref="B56:O56"/>
+    <mergeCell ref="B68:O68"/>
+    <mergeCell ref="B73:O73"/>
+    <mergeCell ref="B92:O92"/>
+    <mergeCell ref="B88:O88"/>
+    <mergeCell ref="B85:O85"/>
+    <mergeCell ref="B82:O82"/>
+    <mergeCell ref="B79:O79"/>
+    <mergeCell ref="A128:O128"/>
+    <mergeCell ref="A129:O129"/>
+    <mergeCell ref="A130:O130"/>
+    <mergeCell ref="A133:O133"/>
+    <mergeCell ref="A99:O99"/>
+    <mergeCell ref="A100:O100"/>
+    <mergeCell ref="A101:O101"/>
+    <mergeCell ref="A121:O121"/>
+    <mergeCell ref="A123:O123"/>
+    <mergeCell ref="A132:O132"/>
+    <mergeCell ref="A102:O102"/>
+    <mergeCell ref="A116:O116"/>
+    <mergeCell ref="A117:O117"/>
+    <mergeCell ref="A118:O118"/>
+    <mergeCell ref="A122:O122"/>
+    <mergeCell ref="A127:O127"/>
+    <mergeCell ref="A135:O135"/>
+    <mergeCell ref="A136:O136"/>
+    <mergeCell ref="A103:O103"/>
+    <mergeCell ref="A104:O104"/>
+    <mergeCell ref="A105:O105"/>
+    <mergeCell ref="A106:O106"/>
+    <mergeCell ref="A107:O107"/>
+    <mergeCell ref="A108:O108"/>
+    <mergeCell ref="A109:O109"/>
+    <mergeCell ref="A110:O110"/>
+    <mergeCell ref="A111:O111"/>
+    <mergeCell ref="A112:O112"/>
+    <mergeCell ref="A113:O113"/>
+    <mergeCell ref="A114:O114"/>
+    <mergeCell ref="A115:O115"/>
+    <mergeCell ref="A134:O134"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B43:O43"/>
+    <mergeCell ref="B45:O45"/>
+    <mergeCell ref="B44:O44"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A131:O131"/>
@@ -12547,54 +12595,6 @@
     <mergeCell ref="B8:O8"/>
     <mergeCell ref="B32:O32"/>
     <mergeCell ref="B42:O42"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="B43:O43"/>
-    <mergeCell ref="B45:O45"/>
-    <mergeCell ref="B44:O44"/>
-    <mergeCell ref="A135:O135"/>
-    <mergeCell ref="A136:O136"/>
-    <mergeCell ref="A103:O103"/>
-    <mergeCell ref="A104:O104"/>
-    <mergeCell ref="A105:O105"/>
-    <mergeCell ref="A106:O106"/>
-    <mergeCell ref="A107:O107"/>
-    <mergeCell ref="A108:O108"/>
-    <mergeCell ref="A109:O109"/>
-    <mergeCell ref="A110:O110"/>
-    <mergeCell ref="A111:O111"/>
-    <mergeCell ref="A112:O112"/>
-    <mergeCell ref="A113:O113"/>
-    <mergeCell ref="A114:O114"/>
-    <mergeCell ref="A115:O115"/>
-    <mergeCell ref="A134:O134"/>
-    <mergeCell ref="A128:O128"/>
-    <mergeCell ref="A129:O129"/>
-    <mergeCell ref="A130:O130"/>
-    <mergeCell ref="A133:O133"/>
-    <mergeCell ref="A99:O99"/>
-    <mergeCell ref="A100:O100"/>
-    <mergeCell ref="A101:O101"/>
-    <mergeCell ref="A121:O121"/>
-    <mergeCell ref="A123:O123"/>
-    <mergeCell ref="A132:O132"/>
-    <mergeCell ref="A102:O102"/>
-    <mergeCell ref="A116:O116"/>
-    <mergeCell ref="A117:O117"/>
-    <mergeCell ref="A118:O118"/>
-    <mergeCell ref="A122:O122"/>
-    <mergeCell ref="A127:O127"/>
-    <mergeCell ref="A98:O98"/>
-    <mergeCell ref="B51:O51"/>
-    <mergeCell ref="B56:O56"/>
-    <mergeCell ref="B68:O68"/>
-    <mergeCell ref="B73:O73"/>
-    <mergeCell ref="B92:O92"/>
-    <mergeCell ref="B88:O88"/>
-    <mergeCell ref="B85:O85"/>
-    <mergeCell ref="B82:O82"/>
-    <mergeCell ref="B79:O79"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A136" r:id="rId1" location="copyright-and-creative-commons" xr:uid="{CC4312E2-3C16-41F5-B536-FBD12C8A89C0}"/>
@@ -12622,112 +12622,112 @@
       <selection pane="bottomRight" sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="9.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16383" width="8.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="9.77734375" style="2" customWidth="1"/>
+    <col min="16" max="16383" width="8.88671875" style="2" hidden="1" customWidth="1"/>
     <col min="16384" max="16384" width="0" style="2" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:16" ht="0.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
       <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-    </row>
-    <row r="3" spans="1:16" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+    </row>
+    <row r="3" spans="1:16" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="88" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91"/>
-    </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="92" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="93" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-    </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="28">
         <v>2001</v>
       </c>
@@ -12771,60 +12771,60 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="74" t="s">
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
@@ -13155,24 +13155,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
@@ -13785,7 +13785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
         <v>19</v>
       </c>
@@ -13832,43 +13832,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="94"/>
-    </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+    </row>
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="31" t="s">
@@ -14199,7 +14199,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45" t="s">
         <v>52</v>
       </c>
@@ -14246,81 +14246,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-    </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="80"/>
+      <c r="O42" s="80"/>
+    </row>
+    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="77"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="77"/>
-      <c r="O44" s="77"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="77"/>
-      <c r="O45" s="77"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="74"/>
     </row>
     <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="46" t="s">
@@ -14561,20 +14561,20 @@
       <c r="A51" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="77"/>
-      <c r="M51" s="77"/>
-      <c r="N51" s="77"/>
-      <c r="O51" s="77"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="74"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="74"/>
     </row>
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="46" t="s">
@@ -14768,20 +14768,20 @@
       <c r="A56" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B56" s="76"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="76"/>
-      <c r="H56" s="76"/>
-      <c r="I56" s="76"/>
-      <c r="J56" s="76"/>
-      <c r="K56" s="76"/>
-      <c r="L56" s="76"/>
-      <c r="M56" s="76"/>
-      <c r="N56" s="76"/>
-      <c r="O56" s="76"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="81"/>
+      <c r="K56" s="81"/>
+      <c r="L56" s="81"/>
+      <c r="M56" s="81"/>
+      <c r="N56" s="81"/>
+      <c r="O56" s="81"/>
     </row>
     <row r="57" spans="1:15" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
@@ -15304,20 +15304,20 @@
       <c r="A68" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B68" s="77"/>
-      <c r="C68" s="77"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="77"/>
-      <c r="J68" s="77"/>
-      <c r="K68" s="77"/>
-      <c r="L68" s="77"/>
-      <c r="M68" s="77"/>
-      <c r="N68" s="77"/>
-      <c r="O68" s="77"/>
+      <c r="B68" s="74"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="74"/>
+      <c r="K68" s="74"/>
+      <c r="L68" s="74"/>
+      <c r="M68" s="74"/>
+      <c r="N68" s="74"/>
+      <c r="O68" s="74"/>
     </row>
     <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
@@ -15511,20 +15511,20 @@
       <c r="A73" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="B73" s="77"/>
-      <c r="C73" s="77"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="77"/>
-      <c r="G73" s="77"/>
-      <c r="H73" s="77"/>
-      <c r="I73" s="77"/>
-      <c r="J73" s="77"/>
-      <c r="K73" s="77"/>
-      <c r="L73" s="77"/>
-      <c r="M73" s="77"/>
-      <c r="N73" s="77"/>
-      <c r="O73" s="77"/>
+      <c r="B73" s="74"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="74"/>
+      <c r="I73" s="74"/>
+      <c r="J73" s="74"/>
+      <c r="K73" s="74"/>
+      <c r="L73" s="74"/>
+      <c r="M73" s="74"/>
+      <c r="N73" s="74"/>
+      <c r="O73" s="74"/>
     </row>
     <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
@@ -15714,7 +15714,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="59" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="22" t="s">
         <v>175</v>
       </c>
@@ -15765,13 +15765,13 @@
       <c r="A79" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="B79" s="86"/>
-      <c r="C79" s="86"/>
-      <c r="D79" s="86"/>
-      <c r="E79" s="86"/>
-      <c r="F79" s="86"/>
-      <c r="G79" s="86"/>
-      <c r="H79" s="86"/>
+      <c r="B79" s="83"/>
+      <c r="C79" s="83"/>
+      <c r="D79" s="83"/>
+      <c r="E79" s="83"/>
+      <c r="F79" s="83"/>
+      <c r="G79" s="83"/>
+      <c r="H79" s="83"/>
       <c r="I79" s="16"/>
       <c r="J79" s="16"/>
       <c r="K79" s="16"/>
@@ -15780,7 +15780,7 @@
       <c r="N79" s="16"/>
       <c r="O79" s="16"/>
     </row>
-    <row r="80" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
         <v>169</v>
       </c>
@@ -15827,7 +15827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" s="59" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="22" t="s">
         <v>177</v>
       </c>
@@ -15878,13 +15878,13 @@
       <c r="A82" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B82" s="86"/>
-      <c r="C82" s="86"/>
-      <c r="D82" s="86"/>
-      <c r="E82" s="86"/>
-      <c r="F82" s="86"/>
-      <c r="G82" s="86"/>
-      <c r="H82" s="86"/>
+      <c r="B82" s="83"/>
+      <c r="C82" s="83"/>
+      <c r="D82" s="83"/>
+      <c r="E82" s="83"/>
+      <c r="F82" s="83"/>
+      <c r="G82" s="83"/>
+      <c r="H82" s="83"/>
       <c r="I82" s="16"/>
       <c r="J82" s="16"/>
       <c r="K82" s="16"/>
@@ -15893,7 +15893,7 @@
       <c r="N82" s="16"/>
       <c r="O82" s="16"/>
     </row>
-    <row r="83" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
         <v>167</v>
       </c>
@@ -15940,7 +15940,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="59" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="22" t="s">
         <v>165</v>
       </c>
@@ -15987,24 +15987,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" s="59" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" s="59" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B85" s="76"/>
-      <c r="C85" s="76"/>
-      <c r="D85" s="76"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="76"/>
-      <c r="H85" s="76"/>
-      <c r="I85" s="76"/>
-      <c r="J85" s="76"/>
-      <c r="K85" s="76"/>
-      <c r="L85" s="76"/>
-      <c r="M85" s="76"/>
-      <c r="N85" s="76"/>
-      <c r="O85" s="76"/>
+      <c r="B85" s="81"/>
+      <c r="C85" s="81"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="81"/>
+      <c r="F85" s="81"/>
+      <c r="G85" s="81"/>
+      <c r="H85" s="81"/>
+      <c r="I85" s="81"/>
+      <c r="J85" s="81"/>
+      <c r="K85" s="81"/>
+      <c r="L85" s="81"/>
+      <c r="M85" s="81"/>
+      <c r="N85" s="81"/>
+      <c r="O85" s="81"/>
     </row>
     <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
@@ -16104,20 +16104,20 @@
       <c r="A88" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="B88" s="77"/>
-      <c r="C88" s="77"/>
-      <c r="D88" s="77"/>
-      <c r="E88" s="77"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="77"/>
-      <c r="H88" s="77"/>
-      <c r="I88" s="77"/>
-      <c r="J88" s="77"/>
-      <c r="K88" s="77"/>
-      <c r="L88" s="77"/>
-      <c r="M88" s="77"/>
-      <c r="N88" s="77"/>
-      <c r="O88" s="77"/>
+      <c r="B88" s="74"/>
+      <c r="C88" s="74"/>
+      <c r="D88" s="74"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="74"/>
+      <c r="H88" s="74"/>
+      <c r="I88" s="74"/>
+      <c r="J88" s="74"/>
+      <c r="K88" s="74"/>
+      <c r="L88" s="74"/>
+      <c r="M88" s="74"/>
+      <c r="N88" s="74"/>
+      <c r="O88" s="74"/>
     </row>
     <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
@@ -16260,7 +16260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" s="77" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="31" t="s">
         <v>225</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="45" t="s">
         <v>59</v>
       </c>
@@ -16500,7 +16500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="95" t="s">
         <v>139</v>
       </c>
@@ -16519,7 +16519,7 @@
       <c r="N98" s="95"/>
       <c r="O98" s="95"/>
     </row>
-    <row r="99" spans="1:16" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="72" t="s">
         <v>72</v>
       </c>
@@ -16538,7 +16538,7 @@
       <c r="N99" s="72"/>
       <c r="O99" s="72"/>
     </row>
-    <row r="100" spans="1:16" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="72" t="s">
         <v>138</v>
       </c>
@@ -16576,7 +16576,7 @@
       <c r="N101" s="73"/>
       <c r="O101" s="73"/>
     </row>
-    <row r="102" spans="1:16" s="13" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" s="13" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="72" t="s">
         <v>126</v>
       </c>
@@ -16614,7 +16614,7 @@
       <c r="N103" s="72"/>
       <c r="O103" s="72"/>
     </row>
-    <row r="104" spans="1:16" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="72" t="s">
         <v>122</v>
       </c>
@@ -16633,7 +16633,7 @@
       <c r="N104" s="72"/>
       <c r="O104" s="72"/>
     </row>
-    <row r="105" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="72" t="s">
         <v>215</v>
       </c>
@@ -16671,7 +16671,7 @@
       <c r="N106" s="72"/>
       <c r="O106" s="72"/>
     </row>
-    <row r="107" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="72" t="s">
         <v>216</v>
       </c>
@@ -16690,7 +16690,7 @@
       <c r="N107" s="72"/>
       <c r="O107" s="72"/>
     </row>
-    <row r="108" spans="1:16" s="13" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" s="13" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="72" t="s">
         <v>217</v>
       </c>
@@ -16709,7 +16709,7 @@
       <c r="N108" s="72"/>
       <c r="O108" s="72"/>
     </row>
-    <row r="109" spans="1:16" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="73" t="s">
         <v>115</v>
       </c>
@@ -16728,7 +16728,7 @@
       <c r="N109" s="73"/>
       <c r="O109" s="73"/>
     </row>
-    <row r="110" spans="1:16" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="72" t="s">
         <v>218</v>
       </c>
@@ -16768,25 +16768,25 @@
       <c r="P111" s="23"/>
     </row>
     <row r="112" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="87" t="s">
+      <c r="A112" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="B112" s="88"/>
-      <c r="C112" s="88"/>
-      <c r="D112" s="88"/>
-      <c r="E112" s="88"/>
-      <c r="F112" s="88"/>
-      <c r="G112" s="88"/>
-      <c r="H112" s="88"/>
-      <c r="I112" s="88"/>
-      <c r="J112" s="88"/>
-      <c r="K112" s="88"/>
-      <c r="L112" s="88"/>
-      <c r="M112" s="88"/>
-      <c r="N112" s="88"/>
-      <c r="O112" s="88"/>
-    </row>
-    <row r="113" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="94"/>
+      <c r="C112" s="94"/>
+      <c r="D112" s="94"/>
+      <c r="E112" s="94"/>
+      <c r="F112" s="94"/>
+      <c r="G112" s="94"/>
+      <c r="H112" s="94"/>
+      <c r="I112" s="94"/>
+      <c r="J112" s="94"/>
+      <c r="K112" s="94"/>
+      <c r="L112" s="94"/>
+      <c r="M112" s="94"/>
+      <c r="N112" s="94"/>
+      <c r="O112" s="94"/>
+    </row>
+    <row r="113" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="72" t="s">
         <v>221</v>
       </c>
@@ -16805,7 +16805,7 @@
       <c r="N113" s="72"/>
       <c r="O113" s="72"/>
     </row>
-    <row r="114" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="72" t="s">
         <v>110</v>
       </c>
@@ -16900,7 +16900,7 @@
       <c r="N118" s="72"/>
       <c r="O118" s="72"/>
     </row>
-    <row r="119" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="13" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="73" t="s">
         <v>103</v>
       </c>
@@ -16938,7 +16938,7 @@
       <c r="N120" s="73"/>
       <c r="O120" s="73"/>
     </row>
-    <row r="121" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1009 1025:2033 2049:3057 3073:4081 4097:5105 5121:6129 6145:7153 7169:8177 8193:9201 9217:10225 10241:11249 11265:12273 12289:13297 13313:14321 14337:15345 15361:16369" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="73" t="s">
         <v>219</v>
       </c>
@@ -20235,7 +20235,7 @@
       <c r="N132" s="73"/>
       <c r="O132" s="73"/>
     </row>
-    <row r="133" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="73" t="s">
         <v>164</v>
       </c>
@@ -20254,7 +20254,7 @@
       <c r="N133" s="73"/>
       <c r="O133" s="73"/>
     </row>
-    <row r="134" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="73" t="s">
         <v>163</v>
       </c>
@@ -20273,7 +20273,7 @@
       <c r="N134" s="73"/>
       <c r="O134" s="73"/>
     </row>
-    <row r="135" spans="1:15" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="72" t="s">
         <v>162</v>
       </c>
@@ -20293,139 +20293,187 @@
       <c r="O135" s="72"/>
     </row>
     <row r="136" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="67" t="s">
+      <c r="A136" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="67"/>
-      <c r="C136" s="67"/>
-      <c r="D136" s="67"/>
-      <c r="E136" s="67"/>
-      <c r="F136" s="67"/>
-      <c r="G136" s="67"/>
-      <c r="H136" s="67"/>
-      <c r="I136" s="67"/>
-      <c r="J136" s="67"/>
-      <c r="K136" s="67"/>
-      <c r="L136" s="67"/>
-      <c r="M136" s="67"/>
-      <c r="N136" s="67"/>
-      <c r="O136" s="67"/>
-    </row>
-    <row r="137" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="63"/>
+      <c r="C136" s="63"/>
+      <c r="D136" s="63"/>
+      <c r="E136" s="63"/>
+      <c r="F136" s="63"/>
+      <c r="G136" s="63"/>
+      <c r="H136" s="63"/>
+      <c r="I136" s="63"/>
+      <c r="J136" s="63"/>
+      <c r="K136" s="63"/>
+      <c r="L136" s="63"/>
+      <c r="M136" s="63"/>
+      <c r="N136" s="63"/>
+      <c r="O136" s="63"/>
+    </row>
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
     </row>
-    <row r="138" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
     </row>
-    <row r="139" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
     </row>
-    <row r="140" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
     </row>
-    <row r="141" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
     </row>
-    <row r="142" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
       <c r="B142" s="5"/>
     </row>
-    <row r="143" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
       <c r="B143" s="5"/>
     </row>
-    <row r="144" spans="1:15" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
     </row>
-    <row r="145" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
     </row>
-    <row r="146" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6"/>
       <c r="B146" s="5"/>
     </row>
-    <row r="147" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6"/>
       <c r="B147" s="5"/>
     </row>
-    <row r="148" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
     </row>
-    <row r="149" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
     </row>
-    <row r="150" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
     </row>
-    <row r="151" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
     </row>
-    <row r="152" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
     </row>
-    <row r="153" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153"/>
     </row>
-    <row r="154" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="155" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="156" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="157" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="158" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="159" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="160" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="64">
+    <mergeCell ref="A136:O136"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B45:O45"/>
+    <mergeCell ref="B51:O51"/>
+    <mergeCell ref="B56:O56"/>
+    <mergeCell ref="B68:O68"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="B73:O73"/>
+    <mergeCell ref="A107:O107"/>
+    <mergeCell ref="A108:O108"/>
+    <mergeCell ref="A103:O103"/>
+    <mergeCell ref="A104:O104"/>
+    <mergeCell ref="A128:O128"/>
+    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="A117:O117"/>
+    <mergeCell ref="A118:O118"/>
+    <mergeCell ref="A120:O120"/>
+    <mergeCell ref="A111:O111"/>
+    <mergeCell ref="A119:O119"/>
+    <mergeCell ref="A115:O115"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B85:O85"/>
+    <mergeCell ref="A101:O101"/>
+    <mergeCell ref="A102:O102"/>
+    <mergeCell ref="B88:O88"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A122:O122"/>
+    <mergeCell ref="A123:O123"/>
+    <mergeCell ref="A124:O124"/>
+    <mergeCell ref="A125:O125"/>
+    <mergeCell ref="A109:O109"/>
+    <mergeCell ref="A110:O110"/>
+    <mergeCell ref="A112:O112"/>
+    <mergeCell ref="A113:O113"/>
+    <mergeCell ref="A114:O114"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B42:O42"/>
+    <mergeCell ref="A121:O121"/>
+    <mergeCell ref="A116:O116"/>
+    <mergeCell ref="A105:O105"/>
+    <mergeCell ref="A106:O106"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A133:O133"/>
     <mergeCell ref="A134:O134"/>
@@ -20442,54 +20490,6 @@
     <mergeCell ref="A98:O98"/>
     <mergeCell ref="A99:O99"/>
     <mergeCell ref="A100:O100"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A122:O122"/>
-    <mergeCell ref="A123:O123"/>
-    <mergeCell ref="A124:O124"/>
-    <mergeCell ref="A125:O125"/>
-    <mergeCell ref="A109:O109"/>
-    <mergeCell ref="A110:O110"/>
-    <mergeCell ref="A112:O112"/>
-    <mergeCell ref="A113:O113"/>
-    <mergeCell ref="A114:O114"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B42:O42"/>
-    <mergeCell ref="A121:O121"/>
-    <mergeCell ref="A116:O116"/>
-    <mergeCell ref="A105:O105"/>
-    <mergeCell ref="A106:O106"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="B85:O85"/>
-    <mergeCell ref="A101:O101"/>
-    <mergeCell ref="A102:O102"/>
-    <mergeCell ref="B88:O88"/>
-    <mergeCell ref="A108:O108"/>
-    <mergeCell ref="A103:O103"/>
-    <mergeCell ref="A104:O104"/>
-    <mergeCell ref="A128:O128"/>
-    <mergeCell ref="B82:H82"/>
-    <mergeCell ref="A117:O117"/>
-    <mergeCell ref="A118:O118"/>
-    <mergeCell ref="A120:O120"/>
-    <mergeCell ref="A111:O111"/>
-    <mergeCell ref="A119:O119"/>
-    <mergeCell ref="A115:O115"/>
-    <mergeCell ref="A136:O136"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="B45:O45"/>
-    <mergeCell ref="B51:O51"/>
-    <mergeCell ref="B56:O56"/>
-    <mergeCell ref="B68:O68"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="B73:O73"/>
-    <mergeCell ref="A107:O107"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A136" r:id="rId1" location="copyright-and-creative-commons" xr:uid="{6AD3560C-F4A6-4DC3-AD99-A3282DAE3E33}"/>
